--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>3125</v>
+        <v>62.5</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="0"/>
-        <v>3125</v>
+        <v>62.5</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" ref="J27:J28" si="1">J28/2</f>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="L27" s="21">
         <f t="shared" ref="L27:L28" si="2">L28/2</f>
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>45</v>
@@ -1780,11 +1780,11 @@
       </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
-        <v>6250</v>
+        <v>125</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="0"/>
-        <v>6250</v>
+        <v>125</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="1"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="L28" s="21">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>45</v>
@@ -1830,11 +1830,11 @@
       </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>250</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>250</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" ref="J29:L30" si="4">J30/2</f>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="L29" s="21">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>45</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="4"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="L30" s="21">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>45</v>
@@ -1925,10 +1925,10 @@
         <v>500000</v>
       </c>
       <c r="H31" s="21">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="I31" s="21">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="J31" s="14">
         <v>250</v>
@@ -1937,7 +1937,7 @@
         <v>500</v>
       </c>
       <c r="L31" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>45</v>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>312.5</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>312.5</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" ref="J27:J28" si="1">J28/2</f>
@@ -1780,11 +1780,11 @@
       </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>625</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>625</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="1"/>
@@ -1830,11 +1830,11 @@
       </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" ref="J29:L30" si="4">J30/2</f>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="4"/>
@@ -1925,10 +1925,10 @@
         <v>500000</v>
       </c>
       <c r="H31" s="21">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="I31" s="21">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J31" s="14">
         <v>250</v>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1344,10 +1344,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="19">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="E18" s="19">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="F18" s="19">
         <v>170</v>
@@ -1385,10 +1385,12 @@
         <v>90</v>
       </c>
       <c r="D19" s="19">
-        <v>120</v>
+        <f>D18*2</f>
+        <v>60000</v>
       </c>
       <c r="E19" s="19">
-        <v>90</v>
+        <f>E18*2</f>
+        <v>40000</v>
       </c>
       <c r="F19" s="19">
         <v>180</v>
@@ -1426,10 +1428,12 @@
         <v>100</v>
       </c>
       <c r="D20" s="19">
-        <v>200</v>
+        <f>D19*2</f>
+        <v>120000</v>
       </c>
       <c r="E20" s="19">
-        <v>100</v>
+        <f>E19*2</f>
+        <v>80000</v>
       </c>
       <c r="F20" s="19">
         <v>190</v>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -81,91 +81,91 @@
     <t>Zombie</t>
   </si>
   <si>
+    <t>Lord Zombie</t>
+  </si>
+  <si>
+    <t>Orco</t>
+  </si>
+  <si>
+    <t>Araña Gigante</t>
+  </si>
+  <si>
+    <t>Orco Guerrero</t>
+  </si>
+  <si>
+    <t>Jefe Orco</t>
+  </si>
+  <si>
+    <t>Pequeño Dragon rojo</t>
+  </si>
+  <si>
+    <t>Escorpion</t>
+  </si>
+  <si>
+    <t>Bandido</t>
+  </si>
+  <si>
+    <t>Asesino</t>
+  </si>
+  <si>
+    <t>Beholder</t>
+  </si>
+  <si>
+    <t>Oso pardo</t>
+  </si>
+  <si>
+    <t>Demonio</t>
+  </si>
+  <si>
+    <t>Dragón Rojo</t>
+  </si>
+  <si>
+    <t>Leviatán</t>
+  </si>
+  <si>
+    <t>Bruja</t>
+  </si>
+  <si>
+    <t>Mago malvado</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Liche</t>
+  </si>
+  <si>
+    <t>Lord Orco</t>
+  </si>
+  <si>
+    <t>Galeón Pirata</t>
+  </si>
+  <si>
+    <t>Galeón Fantasmal</t>
+  </si>
+  <si>
+    <t>Galera embrujada</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>caves</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
     <t>Gallo Salvaje</t>
-  </si>
-  <si>
-    <t>Lord Zombie</t>
-  </si>
-  <si>
-    <t>Orco</t>
-  </si>
-  <si>
-    <t>Araña Gigante</t>
-  </si>
-  <si>
-    <t>Orco Guerrero</t>
-  </si>
-  <si>
-    <t>Jefe Orco</t>
-  </si>
-  <si>
-    <t>Pequeño Dragon rojo</t>
-  </si>
-  <si>
-    <t>Escorpion</t>
-  </si>
-  <si>
-    <t>Bandido</t>
-  </si>
-  <si>
-    <t>Asesino</t>
-  </si>
-  <si>
-    <t>Beholder</t>
-  </si>
-  <si>
-    <t>Oso pardo</t>
-  </si>
-  <si>
-    <t>Demonio</t>
-  </si>
-  <si>
-    <t>Dragón Rojo</t>
-  </si>
-  <si>
-    <t>Leviatán</t>
-  </si>
-  <si>
-    <t>Bruja</t>
-  </si>
-  <si>
-    <t>Mago malvado</t>
-  </si>
-  <si>
-    <t>Golem</t>
-  </si>
-  <si>
-    <t>Medusa</t>
-  </si>
-  <si>
-    <t>Liche</t>
-  </si>
-  <si>
-    <t>Lord Orco</t>
-  </si>
-  <si>
-    <t>Galeón Pirata</t>
-  </si>
-  <si>
-    <t>Galeón Fantasmal</t>
-  </si>
-  <si>
-    <t>Galera embrujada</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>caves</t>
-  </si>
-  <si>
-    <t>desert</t>
-  </si>
-  <si>
-    <t>mountain</t>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="10">
         <v>8</v>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10">
         <v>9</v>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11">
         <v>12</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="11">
         <v>15</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11">
         <v>17</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="11">
         <v>20</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="11">
         <v>25</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11">
         <v>30</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="12">
         <v>80</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12">
         <v>90</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="12">
         <v>100</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="13">
         <v>35</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="13">
         <v>40</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="13">
         <v>45</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="13">
         <v>50</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="13">
         <v>55</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="13">
         <v>60</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="14">
         <v>110</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="14">
         <v>120</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="14">
         <v>130</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="14">
         <v>140</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="14">
         <v>145</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>hell</t>
-  </si>
-  <si>
-    <t>caves</t>
   </si>
   <si>
     <t>desert</t>
@@ -615,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -1124,8 +1121,8 @@
       <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>45</v>
+      <c r="M12" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1165,8 +1162,8 @@
       <c r="L13" s="11">
         <v>0</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>45</v>
+      <c r="M13" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1206,8 +1203,8 @@
       <c r="L14" s="11">
         <v>0</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>45</v>
+      <c r="M14" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1247,8 +1244,8 @@
       <c r="L15" s="11">
         <v>0</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>46</v>
+      <c r="M15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1288,8 +1285,8 @@
       <c r="L16" s="11">
         <v>0</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>46</v>
+      <c r="M16" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1330,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1498,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1539,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1580,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1662,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1703,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -163,6 +163,96 @@
   </si>
   <si>
     <t>Gallo Salvaje</t>
+  </si>
+  <si>
+    <t>caves</t>
+  </si>
+  <si>
+    <t>Gárgola de roca</t>
+  </si>
+  <si>
+    <t>Espectro de la cueva</t>
+  </si>
+  <si>
+    <t>Esqueleto de minero</t>
+  </si>
+  <si>
+    <t>Devorador de luz</t>
+  </si>
+  <si>
+    <t>Rata gigante del túnel</t>
+  </si>
+  <si>
+    <t>Murciélago de colmillos afilados</t>
+  </si>
+  <si>
+    <t>Sirena de las cuevas</t>
+  </si>
+  <si>
+    <t>Espectro de la mina</t>
+  </si>
+  <si>
+    <t>Gólem de piedra</t>
+  </si>
+  <si>
+    <t>Cazador de sombras</t>
+  </si>
+  <si>
+    <t>Devorador de almas</t>
+  </si>
+  <si>
+    <t>Oso cavernícola</t>
+  </si>
+  <si>
+    <t>Naga de cueva</t>
+  </si>
+  <si>
+    <t>Aullador de la mina</t>
+  </si>
+  <si>
+    <t>Serpiente de arena</t>
+  </si>
+  <si>
+    <t>Escorpión gigante</t>
+  </si>
+  <si>
+    <t>Fantasma del desierto</t>
+  </si>
+  <si>
+    <t>Cacto parlante</t>
+  </si>
+  <si>
+    <t>Mummy bandido</t>
+  </si>
+  <si>
+    <t>Búho de arena</t>
+  </si>
+  <si>
+    <t>Dragón del sol</t>
+  </si>
+  <si>
+    <t>Gárgola del viento</t>
+  </si>
+  <si>
+    <t>Esqueleto de jinete</t>
+  </si>
+  <si>
+    <t>Sabueso del desierto</t>
+  </si>
+  <si>
+    <t>Espectro del oasis</t>
+  </si>
+  <si>
+    <t>Huesos de dinosaurio</t>
+  </si>
+  <si>
+    <t>Gólem de sal</t>
+  </si>
+  <si>
+    <t>Espíritu de la tempestad de arena</t>
+  </si>
+  <si>
+    <t>Serpiente alada del desierto</t>
   </si>
 </sst>
 </file>
@@ -186,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,16 +376,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -310,9 +400,6 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,6 +410,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,1339 +709,3194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
         <v>10</v>
       </c>
-      <c r="G2" s="17">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="15">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15">
         <v>10</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <v>20</v>
       </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="10">
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
         <v>20</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>10</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>15</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>25</v>
       </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
         <v>2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>30</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>15</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>20</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>20</v>
       </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
         <v>2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>40</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>20</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>25</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>25</v>
       </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
         <v>3</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17">
-        <v>5</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15">
         <v>4</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>50</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>25</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>30</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <v>30</v>
       </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
         <v>3</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>6</v>
       </c>
-      <c r="E7" s="17">
-        <v>5</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15">
         <v>60</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>30</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>35</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <v>35</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>4</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SUM(N2:N91)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>7</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>6</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>70</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>35</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>40</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <v>40</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>4</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>8</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>7</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>80</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>40</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>45</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <v>45</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>2</v>
       </c>
-      <c r="K9" s="10">
-        <v>5</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="K9" s="9">
+        <v>5</v>
+      </c>
+      <c r="L9" s="9">
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>9</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>9</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>8</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>90</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>45</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>50</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <v>50</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>2</v>
       </c>
-      <c r="K10" s="10">
-        <v>5</v>
-      </c>
-      <c r="L10" s="10">
+      <c r="K10" s="9">
+        <v>5</v>
+      </c>
+      <c r="L10" s="9">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>10</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>9</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>100</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>50</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>55</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <v>55</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>6</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>12</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>20</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>15</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <v>110</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>55</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>60</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>60</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <v>4</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>6</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>15</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>30</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>25</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>120</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <v>60</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="15">
         <v>65</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>65</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <v>4</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>6</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>17</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>40</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>35</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>130</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>65</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>70</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>70</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>4</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>7</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>20</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>50</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>45</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>140</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="15">
         <v>70</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="15">
         <v>75</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="15">
         <v>75</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <v>4</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <v>7</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="9">
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>25</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>60</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>55</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>150</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>75</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>80</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>80</v>
       </c>
-      <c r="J16" s="11">
-        <v>5</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9">
         <v>7</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="22">
         <v>30</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>70</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="23">
         <v>65</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="23">
         <v>160</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="23">
         <v>80</v>
       </c>
-      <c r="H17" s="18">
-        <v>85</v>
-      </c>
-      <c r="I17" s="18">
-        <v>85</v>
-      </c>
-      <c r="J17" s="11">
-        <v>5</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="H17" s="23">
+        <v>85</v>
+      </c>
+      <c r="I17" s="23">
+        <v>85</v>
+      </c>
+      <c r="J17" s="22">
+        <v>5</v>
+      </c>
+      <c r="K17" s="22">
         <v>7</v>
       </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="22">
+        <v>30</v>
+      </c>
+      <c r="D18" s="23">
+        <v>70</v>
+      </c>
+      <c r="E18" s="23">
+        <v>65</v>
+      </c>
+      <c r="F18" s="23">
+        <v>160</v>
+      </c>
+      <c r="G18" s="23">
+        <v>80</v>
+      </c>
+      <c r="H18" s="23">
+        <v>85</v>
+      </c>
+      <c r="I18" s="23">
+        <v>85</v>
+      </c>
+      <c r="J18" s="22">
+        <v>5</v>
+      </c>
+      <c r="K18" s="22">
+        <v>7</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="22">
+        <v>30</v>
+      </c>
+      <c r="D19" s="23">
+        <v>70</v>
+      </c>
+      <c r="E19" s="23">
+        <v>65</v>
+      </c>
+      <c r="F19" s="23">
+        <v>160</v>
+      </c>
+      <c r="G19" s="23">
+        <v>80</v>
+      </c>
+      <c r="H19" s="23">
+        <v>85</v>
+      </c>
+      <c r="I19" s="23">
+        <v>85</v>
+      </c>
+      <c r="J19" s="22">
+        <v>5</v>
+      </c>
+      <c r="K19" s="22">
+        <v>7</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="22">
+        <v>30</v>
+      </c>
+      <c r="D20" s="23">
+        <v>70</v>
+      </c>
+      <c r="E20" s="23">
+        <v>65</v>
+      </c>
+      <c r="F20" s="23">
+        <v>160</v>
+      </c>
+      <c r="G20" s="23">
+        <v>80</v>
+      </c>
+      <c r="H20" s="23">
+        <v>85</v>
+      </c>
+      <c r="I20" s="23">
+        <v>85</v>
+      </c>
+      <c r="J20" s="22">
+        <v>5</v>
+      </c>
+      <c r="K20" s="22">
+        <v>7</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="22">
+        <v>30</v>
+      </c>
+      <c r="D21" s="23">
+        <v>70</v>
+      </c>
+      <c r="E21" s="23">
+        <v>65</v>
+      </c>
+      <c r="F21" s="23">
+        <v>160</v>
+      </c>
+      <c r="G21" s="23">
+        <v>80</v>
+      </c>
+      <c r="H21" s="23">
+        <v>85</v>
+      </c>
+      <c r="I21" s="23">
+        <v>85</v>
+      </c>
+      <c r="J21" s="22">
+        <v>5</v>
+      </c>
+      <c r="K21" s="22">
+        <v>7</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="22">
+        <v>30</v>
+      </c>
+      <c r="D22" s="23">
+        <v>70</v>
+      </c>
+      <c r="E22" s="23">
+        <v>65</v>
+      </c>
+      <c r="F22" s="23">
+        <v>160</v>
+      </c>
+      <c r="G22" s="23">
+        <v>80</v>
+      </c>
+      <c r="H22" s="23">
+        <v>85</v>
+      </c>
+      <c r="I22" s="23">
+        <v>85</v>
+      </c>
+      <c r="J22" s="22">
+        <v>5</v>
+      </c>
+      <c r="K22" s="22">
+        <v>7</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="22">
+        <v>30</v>
+      </c>
+      <c r="D23" s="23">
+        <v>70</v>
+      </c>
+      <c r="E23" s="23">
+        <v>65</v>
+      </c>
+      <c r="F23" s="23">
+        <v>160</v>
+      </c>
+      <c r="G23" s="23">
+        <v>80</v>
+      </c>
+      <c r="H23" s="23">
+        <v>85</v>
+      </c>
+      <c r="I23" s="23">
+        <v>85</v>
+      </c>
+      <c r="J23" s="22">
+        <v>5</v>
+      </c>
+      <c r="K23" s="22">
+        <v>7</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="22">
+        <v>30</v>
+      </c>
+      <c r="D24" s="23">
+        <v>70</v>
+      </c>
+      <c r="E24" s="23">
+        <v>65</v>
+      </c>
+      <c r="F24" s="23">
+        <v>160</v>
+      </c>
+      <c r="G24" s="23">
+        <v>80</v>
+      </c>
+      <c r="H24" s="23">
+        <v>85</v>
+      </c>
+      <c r="I24" s="23">
+        <v>85</v>
+      </c>
+      <c r="J24" s="22">
+        <v>5</v>
+      </c>
+      <c r="K24" s="22">
+        <v>7</v>
+      </c>
+      <c r="L24" s="22">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="22">
+        <v>30</v>
+      </c>
+      <c r="D25" s="23">
+        <v>70</v>
+      </c>
+      <c r="E25" s="23">
+        <v>65</v>
+      </c>
+      <c r="F25" s="23">
+        <v>160</v>
+      </c>
+      <c r="G25" s="23">
+        <v>80</v>
+      </c>
+      <c r="H25" s="23">
+        <v>85</v>
+      </c>
+      <c r="I25" s="23">
+        <v>85</v>
+      </c>
+      <c r="J25" s="22">
+        <v>5</v>
+      </c>
+      <c r="K25" s="22">
+        <v>7</v>
+      </c>
+      <c r="L25" s="22">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="22">
+        <v>30</v>
+      </c>
+      <c r="D26" s="23">
+        <v>70</v>
+      </c>
+      <c r="E26" s="23">
+        <v>65</v>
+      </c>
+      <c r="F26" s="23">
+        <v>160</v>
+      </c>
+      <c r="G26" s="23">
+        <v>80</v>
+      </c>
+      <c r="H26" s="23">
+        <v>85</v>
+      </c>
+      <c r="I26" s="23">
+        <v>85</v>
+      </c>
+      <c r="J26" s="22">
+        <v>5</v>
+      </c>
+      <c r="K26" s="22">
+        <v>7</v>
+      </c>
+      <c r="L26" s="22">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="22">
+        <v>30</v>
+      </c>
+      <c r="D27" s="23">
+        <v>70</v>
+      </c>
+      <c r="E27" s="23">
+        <v>65</v>
+      </c>
+      <c r="F27" s="23">
+        <v>160</v>
+      </c>
+      <c r="G27" s="23">
+        <v>80</v>
+      </c>
+      <c r="H27" s="23">
+        <v>85</v>
+      </c>
+      <c r="I27" s="23">
+        <v>85</v>
+      </c>
+      <c r="J27" s="22">
+        <v>5</v>
+      </c>
+      <c r="K27" s="22">
+        <v>7</v>
+      </c>
+      <c r="L27" s="22">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="22">
+        <v>30</v>
+      </c>
+      <c r="D28" s="23">
+        <v>70</v>
+      </c>
+      <c r="E28" s="23">
+        <v>65</v>
+      </c>
+      <c r="F28" s="23">
+        <v>160</v>
+      </c>
+      <c r="G28" s="23">
+        <v>80</v>
+      </c>
+      <c r="H28" s="23">
+        <v>85</v>
+      </c>
+      <c r="I28" s="23">
+        <v>85</v>
+      </c>
+      <c r="J28" s="22">
+        <v>5</v>
+      </c>
+      <c r="K28" s="22">
+        <v>7</v>
+      </c>
+      <c r="L28" s="22">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="22">
+        <v>30</v>
+      </c>
+      <c r="D29" s="23">
+        <v>70</v>
+      </c>
+      <c r="E29" s="23">
+        <v>65</v>
+      </c>
+      <c r="F29" s="23">
+        <v>160</v>
+      </c>
+      <c r="G29" s="23">
+        <v>80</v>
+      </c>
+      <c r="H29" s="23">
+        <v>85</v>
+      </c>
+      <c r="I29" s="23">
+        <v>85</v>
+      </c>
+      <c r="J29" s="22">
+        <v>5</v>
+      </c>
+      <c r="K29" s="22">
+        <v>7</v>
+      </c>
+      <c r="L29" s="22">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="22">
+        <v>30</v>
+      </c>
+      <c r="D30" s="23">
+        <v>70</v>
+      </c>
+      <c r="E30" s="23">
+        <v>65</v>
+      </c>
+      <c r="F30" s="23">
+        <v>160</v>
+      </c>
+      <c r="G30" s="23">
+        <v>80</v>
+      </c>
+      <c r="H30" s="23">
+        <v>85</v>
+      </c>
+      <c r="I30" s="23">
+        <v>85</v>
+      </c>
+      <c r="J30" s="22">
+        <v>5</v>
+      </c>
+      <c r="K30" s="22">
+        <v>7</v>
+      </c>
+      <c r="L30" s="22">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="22">
+        <v>30</v>
+      </c>
+      <c r="D31" s="23">
+        <v>70</v>
+      </c>
+      <c r="E31" s="23">
+        <v>65</v>
+      </c>
+      <c r="F31" s="23">
+        <v>160</v>
+      </c>
+      <c r="G31" s="23">
+        <v>80</v>
+      </c>
+      <c r="H31" s="23">
+        <v>85</v>
+      </c>
+      <c r="I31" s="23">
+        <v>85</v>
+      </c>
+      <c r="J31" s="22">
+        <v>5</v>
+      </c>
+      <c r="K31" s="22">
+        <v>7</v>
+      </c>
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="20">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20">
+        <v>70</v>
+      </c>
+      <c r="E32" s="20">
+        <v>65</v>
+      </c>
+      <c r="F32" s="20">
+        <v>160</v>
+      </c>
+      <c r="G32" s="20">
+        <v>80</v>
+      </c>
+      <c r="H32" s="20">
+        <v>85</v>
+      </c>
+      <c r="I32" s="20">
+        <v>85</v>
+      </c>
+      <c r="J32" s="20">
+        <v>5</v>
+      </c>
+      <c r="K32" s="20">
+        <v>7</v>
+      </c>
+      <c r="L32" s="20">
+        <v>0</v>
+      </c>
+      <c r="M32" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="20">
+        <v>30</v>
+      </c>
+      <c r="D33" s="20">
+        <v>70</v>
+      </c>
+      <c r="E33" s="20">
+        <v>65</v>
+      </c>
+      <c r="F33" s="20">
+        <v>160</v>
+      </c>
+      <c r="G33" s="20">
+        <v>80</v>
+      </c>
+      <c r="H33" s="20">
+        <v>85</v>
+      </c>
+      <c r="I33" s="20">
+        <v>85</v>
+      </c>
+      <c r="J33" s="20">
+        <v>5</v>
+      </c>
+      <c r="K33" s="20">
+        <v>7</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="20">
+        <v>30</v>
+      </c>
+      <c r="D34" s="20">
+        <v>70</v>
+      </c>
+      <c r="E34" s="20">
+        <v>65</v>
+      </c>
+      <c r="F34" s="20">
+        <v>160</v>
+      </c>
+      <c r="G34" s="20">
+        <v>80</v>
+      </c>
+      <c r="H34" s="20">
+        <v>85</v>
+      </c>
+      <c r="I34" s="20">
+        <v>85</v>
+      </c>
+      <c r="J34" s="20">
+        <v>5</v>
+      </c>
+      <c r="K34" s="20">
+        <v>7</v>
+      </c>
+      <c r="L34" s="20">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="20">
+        <v>30</v>
+      </c>
+      <c r="D35" s="20">
+        <v>70</v>
+      </c>
+      <c r="E35" s="20">
+        <v>65</v>
+      </c>
+      <c r="F35" s="20">
+        <v>160</v>
+      </c>
+      <c r="G35" s="20">
+        <v>80</v>
+      </c>
+      <c r="H35" s="20">
+        <v>85</v>
+      </c>
+      <c r="I35" s="20">
+        <v>85</v>
+      </c>
+      <c r="J35" s="20">
+        <v>5</v>
+      </c>
+      <c r="K35" s="20">
+        <v>7</v>
+      </c>
+      <c r="L35" s="20">
+        <v>0</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="20">
+        <v>30</v>
+      </c>
+      <c r="D36" s="20">
+        <v>70</v>
+      </c>
+      <c r="E36" s="20">
+        <v>65</v>
+      </c>
+      <c r="F36" s="20">
+        <v>160</v>
+      </c>
+      <c r="G36" s="20">
+        <v>80</v>
+      </c>
+      <c r="H36" s="20">
+        <v>85</v>
+      </c>
+      <c r="I36" s="20">
+        <v>85</v>
+      </c>
+      <c r="J36" s="20">
+        <v>5</v>
+      </c>
+      <c r="K36" s="20">
+        <v>7</v>
+      </c>
+      <c r="L36" s="20">
+        <v>0</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="20">
+        <v>30</v>
+      </c>
+      <c r="D37" s="20">
+        <v>70</v>
+      </c>
+      <c r="E37" s="20">
+        <v>65</v>
+      </c>
+      <c r="F37" s="20">
+        <v>160</v>
+      </c>
+      <c r="G37" s="20">
+        <v>80</v>
+      </c>
+      <c r="H37" s="20">
+        <v>85</v>
+      </c>
+      <c r="I37" s="20">
+        <v>85</v>
+      </c>
+      <c r="J37" s="20">
+        <v>5</v>
+      </c>
+      <c r="K37" s="20">
+        <v>7</v>
+      </c>
+      <c r="L37" s="20">
+        <v>0</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="20">
+        <v>30</v>
+      </c>
+      <c r="D38" s="20">
+        <v>70</v>
+      </c>
+      <c r="E38" s="20">
+        <v>65</v>
+      </c>
+      <c r="F38" s="20">
+        <v>160</v>
+      </c>
+      <c r="G38" s="20">
+        <v>80</v>
+      </c>
+      <c r="H38" s="20">
+        <v>85</v>
+      </c>
+      <c r="I38" s="20">
+        <v>85</v>
+      </c>
+      <c r="J38" s="20">
+        <v>5</v>
+      </c>
+      <c r="K38" s="20">
+        <v>7</v>
+      </c>
+      <c r="L38" s="20">
+        <v>0</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="20">
+        <v>30</v>
+      </c>
+      <c r="D39" s="20">
+        <v>70</v>
+      </c>
+      <c r="E39" s="20">
+        <v>65</v>
+      </c>
+      <c r="F39" s="20">
+        <v>160</v>
+      </c>
+      <c r="G39" s="20">
+        <v>80</v>
+      </c>
+      <c r="H39" s="20">
+        <v>85</v>
+      </c>
+      <c r="I39" s="20">
+        <v>85</v>
+      </c>
+      <c r="J39" s="20">
+        <v>5</v>
+      </c>
+      <c r="K39" s="20">
+        <v>7</v>
+      </c>
+      <c r="L39" s="20">
+        <v>0</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="20">
+        <v>30</v>
+      </c>
+      <c r="D40" s="20">
+        <v>70</v>
+      </c>
+      <c r="E40" s="20">
+        <v>65</v>
+      </c>
+      <c r="F40" s="20">
+        <v>160</v>
+      </c>
+      <c r="G40" s="20">
+        <v>80</v>
+      </c>
+      <c r="H40" s="20">
+        <v>85</v>
+      </c>
+      <c r="I40" s="20">
+        <v>85</v>
+      </c>
+      <c r="J40" s="20">
+        <v>5</v>
+      </c>
+      <c r="K40" s="20">
+        <v>7</v>
+      </c>
+      <c r="L40" s="20">
+        <v>0</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="C18" s="12">
+      <c r="B41" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="20">
+        <v>30</v>
+      </c>
+      <c r="D41" s="20">
+        <v>70</v>
+      </c>
+      <c r="E41" s="20">
+        <v>65</v>
+      </c>
+      <c r="F41" s="20">
+        <v>160</v>
+      </c>
+      <c r="G41" s="20">
         <v>80</v>
       </c>
-      <c r="D18" s="19">
+      <c r="H41" s="20">
+        <v>85</v>
+      </c>
+      <c r="I41" s="20">
+        <v>85</v>
+      </c>
+      <c r="J41" s="20">
+        <v>5</v>
+      </c>
+      <c r="K41" s="20">
+        <v>7</v>
+      </c>
+      <c r="L41" s="20">
+        <v>0</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="20">
+        <v>30</v>
+      </c>
+      <c r="D42" s="20">
+        <v>70</v>
+      </c>
+      <c r="E42" s="20">
+        <v>65</v>
+      </c>
+      <c r="F42" s="20">
+        <v>160</v>
+      </c>
+      <c r="G42" s="20">
+        <v>80</v>
+      </c>
+      <c r="H42" s="20">
+        <v>85</v>
+      </c>
+      <c r="I42" s="20">
+        <v>85</v>
+      </c>
+      <c r="J42" s="20">
+        <v>5</v>
+      </c>
+      <c r="K42" s="20">
+        <v>7</v>
+      </c>
+      <c r="L42" s="20">
+        <v>0</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="20">
+        <v>30</v>
+      </c>
+      <c r="D43" s="20">
+        <v>70</v>
+      </c>
+      <c r="E43" s="20">
+        <v>65</v>
+      </c>
+      <c r="F43" s="20">
+        <v>160</v>
+      </c>
+      <c r="G43" s="20">
+        <v>80</v>
+      </c>
+      <c r="H43" s="20">
+        <v>85</v>
+      </c>
+      <c r="I43" s="20">
+        <v>85</v>
+      </c>
+      <c r="J43" s="20">
+        <v>5</v>
+      </c>
+      <c r="K43" s="20">
+        <v>7</v>
+      </c>
+      <c r="L43" s="20">
+        <v>0</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="20">
+        <v>30</v>
+      </c>
+      <c r="D44" s="20">
+        <v>70</v>
+      </c>
+      <c r="E44" s="20">
+        <v>65</v>
+      </c>
+      <c r="F44" s="20">
+        <v>160</v>
+      </c>
+      <c r="G44" s="20">
+        <v>80</v>
+      </c>
+      <c r="H44" s="20">
+        <v>85</v>
+      </c>
+      <c r="I44" s="20">
+        <v>85</v>
+      </c>
+      <c r="J44" s="20">
+        <v>5</v>
+      </c>
+      <c r="K44" s="20">
+        <v>7</v>
+      </c>
+      <c r="L44" s="20">
+        <v>0</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="20">
+        <v>30</v>
+      </c>
+      <c r="D45" s="20">
+        <v>70</v>
+      </c>
+      <c r="E45" s="20">
+        <v>65</v>
+      </c>
+      <c r="F45" s="20">
+        <v>160</v>
+      </c>
+      <c r="G45" s="20">
+        <v>80</v>
+      </c>
+      <c r="H45" s="20">
+        <v>85</v>
+      </c>
+      <c r="I45" s="20">
+        <v>85</v>
+      </c>
+      <c r="J45" s="20">
+        <v>5</v>
+      </c>
+      <c r="K45" s="20">
+        <v>7</v>
+      </c>
+      <c r="L45" s="20">
+        <v>0</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="20">
+        <v>30</v>
+      </c>
+      <c r="D46" s="20">
+        <v>70</v>
+      </c>
+      <c r="E46" s="20">
+        <v>65</v>
+      </c>
+      <c r="F46" s="20">
+        <v>160</v>
+      </c>
+      <c r="G46" s="20">
+        <v>80</v>
+      </c>
+      <c r="H46" s="20">
+        <v>85</v>
+      </c>
+      <c r="I46" s="20">
+        <v>85</v>
+      </c>
+      <c r="J46" s="20">
+        <v>5</v>
+      </c>
+      <c r="K46" s="20">
+        <v>7</v>
+      </c>
+      <c r="L46" s="20">
+        <v>0</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="10">
+        <v>80</v>
+      </c>
+      <c r="D47" s="16">
         <v>30000</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E47" s="16">
         <v>20000</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F47" s="16">
         <v>170</v>
       </c>
-      <c r="G18" s="19">
-        <v>85</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="G47" s="16">
+        <v>85</v>
+      </c>
+      <c r="H47" s="16">
         <v>90</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I47" s="16">
         <v>90</v>
       </c>
-      <c r="J18" s="12">
-        <v>5</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="J47" s="10">
+        <v>5</v>
+      </c>
+      <c r="K47" s="10">
         <v>8</v>
       </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="L47" s="10">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C48" s="10">
         <v>90</v>
       </c>
-      <c r="D19" s="19">
-        <f>D18*2</f>
+      <c r="D48" s="16">
+        <f>D47*2</f>
         <v>60000</v>
       </c>
-      <c r="E19" s="19">
-        <f>E18*2</f>
+      <c r="E48" s="16">
+        <f>E47*2</f>
         <v>40000</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F48" s="16">
         <v>180</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G48" s="16">
         <v>90</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H48" s="16">
         <v>95</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I48" s="16">
         <v>95</v>
       </c>
-      <c r="J19" s="12">
-        <v>5</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="J48" s="10">
+        <v>5</v>
+      </c>
+      <c r="K48" s="10">
         <v>8</v>
       </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="L48" s="10">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C49" s="10">
         <v>100</v>
       </c>
-      <c r="D20" s="19">
-        <f>D19*2</f>
+      <c r="D49" s="16">
+        <f>D48*2</f>
         <v>120000</v>
       </c>
-      <c r="E20" s="19">
-        <f>E19*2</f>
+      <c r="E49" s="16">
+        <f>E48*2</f>
         <v>80000</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F49" s="16">
         <v>190</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G49" s="16">
         <v>95</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H49" s="16">
         <v>100</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I49" s="16">
         <v>100</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J49" s="10">
         <v>6</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K49" s="10">
         <v>8</v>
       </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="L49" s="10">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C62" s="11">
         <v>35</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D62" s="17">
         <v>1000</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E62" s="17">
         <v>750</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F62" s="17">
         <v>200</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G62" s="17">
         <v>100</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H62" s="17">
         <v>110</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I62" s="17">
         <v>110</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J62" s="11">
         <v>6</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K62" s="11">
         <v>8</v>
       </c>
-      <c r="L21" s="13">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C63" s="11">
         <v>40</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D63" s="17">
         <v>2000</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E63" s="17">
         <v>1500</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F63" s="17">
         <v>210</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G63" s="17">
         <v>105</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H63" s="17">
         <v>115</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I63" s="17">
         <v>115</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J63" s="11">
         <v>6</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K63" s="11">
         <v>9</v>
       </c>
-      <c r="L22" s="13">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="L63" s="11">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C64" s="11">
         <v>45</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D64" s="17">
         <v>3000</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E64" s="17">
         <v>2500</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F64" s="17">
         <v>220</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G64" s="17">
         <v>110</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H64" s="17">
         <v>120</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I64" s="17">
         <v>120</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J64" s="11">
         <v>6</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K64" s="11">
         <v>9</v>
       </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="L64" s="11">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C65" s="11">
         <v>50</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D65" s="17">
         <v>4000</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E65" s="17">
         <v>3000</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F65" s="17">
         <v>230</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G65" s="17">
         <v>115</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H65" s="17">
         <v>125</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I65" s="17">
         <v>125</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J65" s="11">
         <v>7</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K65" s="11">
         <v>9</v>
       </c>
-      <c r="L24" s="13">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C66" s="11">
         <v>55</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D66" s="17">
         <v>5000</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E66" s="17">
         <v>4500</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F66" s="17">
         <v>240</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G66" s="17">
         <v>120</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H66" s="17">
         <v>130</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I66" s="17">
         <v>130</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J66" s="11">
         <v>7</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K66" s="11">
         <v>9</v>
       </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4" t="s">
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C67" s="11">
         <v>60</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D67" s="17">
         <v>10000</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E67" s="17">
         <v>5800</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F67" s="17">
         <v>250</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G67" s="17">
         <v>125</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H67" s="17">
         <v>135</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I67" s="17">
         <v>135</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J67" s="11">
         <v>8</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K67" s="11">
         <v>10</v>
       </c>
-      <c r="L26" s="13">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="L67" s="11">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C77" s="12">
         <v>110</v>
       </c>
-      <c r="D27" s="21">
-        <f t="shared" ref="D27:I30" si="0">D28/2</f>
+      <c r="D77" s="18">
+        <f t="shared" ref="D77:I80" si="0">D78/2</f>
         <v>1514966.625</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E77" s="18">
         <f t="shared" si="0"/>
         <v>1514966.625</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F77" s="18">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G77" s="18">
         <f t="shared" si="0"/>
         <v>31250</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H77" s="18">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I77" s="18">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="J27" s="21">
-        <f t="shared" ref="J27:J28" si="1">J28/2</f>
+      <c r="J77" s="18">
+        <f t="shared" ref="J77:J78" si="1">J78/2</f>
         <v>15.625</v>
       </c>
-      <c r="K27" s="21">
-        <f>K28/2</f>
+      <c r="K77" s="18">
+        <f>K78/2</f>
         <v>31.25</v>
       </c>
-      <c r="L27" s="21">
-        <f t="shared" ref="L27:L28" si="2">L28/2</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="7" t="s">
+      <c r="L77" s="18">
+        <f t="shared" ref="L77:L78" si="2">L78/2</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C78" s="12">
         <v>120</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D78" s="18">
         <f t="shared" si="0"/>
         <v>3029933.25</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E78" s="18">
         <f t="shared" si="0"/>
         <v>3029933.25</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F78" s="18">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G78" s="18">
         <f t="shared" si="0"/>
         <v>62500</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H78" s="18">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I78" s="18">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J78" s="18">
         <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
-      <c r="K28" s="21">
-        <f t="shared" ref="K28" si="3">K29/2</f>
+      <c r="K78" s="18">
+        <f t="shared" ref="K78" si="3">K79/2</f>
         <v>62.5</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L78" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M78" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C79" s="12">
         <v>130</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D79" s="18">
         <f t="shared" si="0"/>
         <v>6059866.5</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E79" s="18">
         <f t="shared" si="0"/>
         <v>6059866.5</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F79" s="18">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G79" s="18">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H79" s="18">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I79" s="18">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="J29" s="21">
-        <f t="shared" ref="J29:L30" si="4">J30/2</f>
+      <c r="J79" s="18">
+        <f t="shared" ref="J79:L80" si="4">J80/2</f>
         <v>62.5</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K79" s="18">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L79" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M79" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C80" s="12">
         <v>140</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D80" s="18">
         <f t="shared" si="0"/>
         <v>12119733</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E80" s="18">
         <f t="shared" si="0"/>
         <v>12119733</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F80" s="18">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G80" s="18">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H80" s="18">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I80" s="18">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J80" s="18">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K80" s="18">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L80" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M80" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C81" s="12">
         <v>145</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D81" s="18">
         <v>24239466</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E81" s="18">
         <v>24239466</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F81" s="18">
         <v>200000</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G81" s="18">
         <v>500000</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H81" s="18">
         <v>5000</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I81" s="18">
         <v>5000</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J81" s="12">
         <v>250</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K81" s="12">
         <v>500</v>
       </c>
-      <c r="L31" s="14">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7" t="s">
+      <c r="L81" s="12">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="7"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="7"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="7"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="7"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="7"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="7"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="7"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -108,60 +108,9 @@
     <t>Asesino</t>
   </si>
   <si>
-    <t>Beholder</t>
-  </si>
-  <si>
-    <t>Oso pardo</t>
-  </si>
-  <si>
-    <t>Demonio</t>
-  </si>
-  <si>
-    <t>Dragón Rojo</t>
-  </si>
-  <si>
-    <t>Leviatán</t>
-  </si>
-  <si>
-    <t>Bruja</t>
-  </si>
-  <si>
-    <t>Mago malvado</t>
-  </si>
-  <si>
-    <t>Golem</t>
-  </si>
-  <si>
-    <t>Medusa</t>
-  </si>
-  <si>
-    <t>Liche</t>
-  </si>
-  <si>
-    <t>Lord Orco</t>
-  </si>
-  <si>
-    <t>Galeón Pirata</t>
-  </si>
-  <si>
-    <t>Galeón Fantasmal</t>
-  </si>
-  <si>
-    <t>Galera embrujada</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>desert</t>
   </si>
   <si>
-    <t>mountain</t>
-  </si>
-  <si>
     <t>Gallo Salvaje</t>
   </si>
   <si>
@@ -253,6 +202,12 @@
   </si>
   <si>
     <t>Serpiente alada del desierto</t>
+  </si>
+  <si>
+    <t>multExp</t>
+  </si>
+  <si>
+    <t>multAll</t>
   </si>
 </sst>
 </file>
@@ -353,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +377,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -772,6 +730,12 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -784,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -805,16 +769,22 @@
         <v>1</v>
       </c>
       <c r="K2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -822,43 +792,60 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
+        <f>D2*P3</f>
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="15">
+        <f>E2*P3</f>
+        <v>1.3</v>
+      </c>
+      <c r="F3" s="15">
+        <f>F2*P3</f>
+        <v>13</v>
+      </c>
+      <c r="G3" s="15">
+        <f>G2*P3</f>
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="15">
+        <f>H2*O3</f>
+        <v>11</v>
+      </c>
+      <c r="I3" s="15">
+        <f>I2*O3</f>
+        <v>22</v>
+      </c>
+      <c r="J3" s="9">
+        <f>J2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="K3" s="9">
+        <f>K2+1</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="9">
+        <f>L2+1</f>
         <v>2</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15">
-        <v>20</v>
-      </c>
-      <c r="G3" s="15">
-        <v>10</v>
-      </c>
-      <c r="H3" s="15">
-        <v>15</v>
-      </c>
-      <c r="I3" s="15">
-        <v>25</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9">
-        <v>2</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:P5" si="0">O2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -869,40 +856,57 @@
         <v>15</v>
       </c>
       <c r="C4" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="15">
-        <v>3</v>
+        <f>D3*P4</f>
+        <v>3.3800000000000003</v>
       </c>
       <c r="E4" s="15">
-        <v>2</v>
+        <f>E3*P4</f>
+        <v>1.6900000000000002</v>
       </c>
       <c r="F4" s="15">
-        <v>30</v>
+        <f>F3*P4</f>
+        <v>16.900000000000002</v>
       </c>
       <c r="G4" s="15">
-        <v>15</v>
+        <f>G3*P4</f>
+        <v>8.4500000000000011</v>
       </c>
       <c r="H4" s="15">
-        <v>20</v>
+        <f>H3*O4</f>
+        <v>12.100000000000001</v>
       </c>
       <c r="I4" s="15">
-        <v>20</v>
+        <f>I3*O4</f>
+        <v>24.200000000000003</v>
       </c>
       <c r="J4" s="9">
-        <v>1</v>
+        <f>J3*O4</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K4" s="9">
-        <v>2</v>
+        <f>K3*O4</f>
+        <v>3.3000000000000003</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <f>L3*O4</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -913,40 +917,57 @@
         <v>16</v>
       </c>
       <c r="C5" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="15">
-        <v>4</v>
+        <f t="shared" ref="D5:D16" si="1">D4*P5</f>
+        <v>4.394000000000001</v>
       </c>
       <c r="E5" s="15">
-        <v>3</v>
+        <f t="shared" ref="E5:E16" si="2">E4*P5</f>
+        <v>2.1970000000000005</v>
       </c>
       <c r="F5" s="15">
-        <v>40</v>
+        <f>F4*P5</f>
+        <v>21.970000000000002</v>
       </c>
       <c r="G5" s="15">
-        <v>20</v>
+        <f t="shared" ref="G5:G45" si="3">G4*P5</f>
+        <v>10.985000000000001</v>
       </c>
       <c r="H5" s="15">
-        <v>25</v>
+        <f t="shared" ref="H5:H46" si="4">H4*O5</f>
+        <v>13.310000000000002</v>
       </c>
       <c r="I5" s="15">
-        <v>25</v>
+        <f t="shared" ref="I5:I46" si="5">I4*O5</f>
+        <v>26.620000000000005</v>
       </c>
       <c r="J5" s="9">
-        <v>1</v>
+        <f>J4*O5</f>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K5" s="9">
-        <v>3</v>
+        <f>K4*O5</f>
+        <v>3.6300000000000008</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <f>L4*O5</f>
+        <v>2.4200000000000004</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -957,40 +978,57 @@
         <v>17</v>
       </c>
       <c r="C6" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" s="15">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>5.7122000000000019</v>
       </c>
       <c r="E6" s="15">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2.856100000000001</v>
       </c>
       <c r="F6" s="15">
-        <v>50</v>
+        <f t="shared" ref="F6:F46" si="6">F5*P6</f>
+        <v>28.561000000000003</v>
       </c>
       <c r="G6" s="15">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>14.280500000000002</v>
       </c>
       <c r="H6" s="15">
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>14.641000000000004</v>
       </c>
       <c r="I6" s="15">
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>29.282000000000007</v>
       </c>
       <c r="J6" s="9">
-        <v>1</v>
+        <f>J5*O6</f>
+        <v>2.6620000000000008</v>
       </c>
       <c r="K6" s="9">
-        <v>3</v>
+        <f t="shared" ref="K6:K46" si="7">K5*O6</f>
+        <v>3.9930000000000012</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <f>L5*O6</f>
+        <v>2.6620000000000008</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O46" si="8">O5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" ref="P6:P46" si="9">P5</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1001,40 +1039,57 @@
         <v>18</v>
       </c>
       <c r="C7" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" s="15">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7.4258600000000028</v>
       </c>
       <c r="E7" s="15">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3.7129300000000014</v>
       </c>
       <c r="F7" s="15">
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>37.129300000000008</v>
       </c>
       <c r="G7" s="15">
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>18.564650000000004</v>
       </c>
       <c r="H7" s="15">
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>16.105100000000004</v>
       </c>
       <c r="I7" s="15">
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>32.210200000000007</v>
       </c>
       <c r="J7" s="9">
-        <v>2</v>
+        <f t="shared" ref="J7:J46" si="10">J6*O7</f>
+        <v>2.9282000000000012</v>
       </c>
       <c r="K7" s="9">
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>4.3923000000000014</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <f t="shared" ref="L7:L46" si="11">L6*O7</f>
+        <v>2.9282000000000012</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(N2:N91)</f>
@@ -1049,40 +1104,57 @@
         <v>19</v>
       </c>
       <c r="C8" s="9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D8" s="15">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>9.6536180000000034</v>
       </c>
       <c r="E8" s="15">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>4.8268090000000017</v>
       </c>
       <c r="F8" s="15">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>48.268090000000015</v>
       </c>
       <c r="G8" s="15">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>24.134045000000008</v>
       </c>
       <c r="H8" s="15">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>17.715610000000005</v>
       </c>
       <c r="I8" s="15">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>35.43122000000001</v>
       </c>
       <c r="J8" s="9">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3.2210200000000015</v>
       </c>
       <c r="K8" s="9">
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>4.8315300000000017</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3.2210200000000015</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1093,40 +1165,57 @@
         <v>20</v>
       </c>
       <c r="C9" s="9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D9" s="15">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>12.549703400000006</v>
       </c>
       <c r="E9" s="15">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>6.2748517000000028</v>
       </c>
       <c r="F9" s="15">
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>62.748517000000021</v>
       </c>
       <c r="G9" s="15">
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>31.37425850000001</v>
       </c>
       <c r="H9" s="15">
-        <v>45</v>
+        <f t="shared" si="4"/>
+        <v>19.487171000000007</v>
       </c>
       <c r="I9" s="15">
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>38.974342000000014</v>
       </c>
       <c r="J9" s="9">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3.5431220000000021</v>
       </c>
       <c r="K9" s="9">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.3146830000000023</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3.5431220000000021</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1137,40 +1226,57 @@
         <v>21</v>
       </c>
       <c r="C10" s="9">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D10" s="15">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>16.314614420000009</v>
       </c>
       <c r="E10" s="15">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>8.1573072100000044</v>
       </c>
       <c r="F10" s="15">
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>81.573072100000033</v>
       </c>
       <c r="G10" s="15">
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>40.786536050000016</v>
       </c>
       <c r="H10" s="15">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>21.43588810000001</v>
       </c>
       <c r="I10" s="15">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>42.871776200000021</v>
       </c>
       <c r="J10" s="9">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3.8974342000000028</v>
       </c>
       <c r="K10" s="9">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.8461513000000034</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3.8974342000000028</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1181,40 +1287,57 @@
         <v>22</v>
       </c>
       <c r="C11" s="9">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D11" s="15">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>21.208998746000013</v>
       </c>
       <c r="E11" s="15">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>10.604499373000007</v>
       </c>
       <c r="F11" s="15">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>106.04499373000004</v>
       </c>
       <c r="G11" s="15">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>53.022496865000022</v>
       </c>
       <c r="H11" s="15">
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>23.579476910000015</v>
       </c>
       <c r="I11" s="15">
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>47.158953820000029</v>
       </c>
       <c r="J11" s="9">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>4.2871776200000031</v>
       </c>
       <c r="K11" s="9">
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>6.4307664300000038</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>4.2871776200000031</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1225,40 +1348,57 @@
         <v>23</v>
       </c>
       <c r="C12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D12" s="15">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>27.571698369800018</v>
       </c>
       <c r="E12" s="15">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>13.785849184900009</v>
       </c>
       <c r="F12" s="15">
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>137.85849184900007</v>
       </c>
       <c r="G12" s="15">
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>68.929245924500037</v>
       </c>
       <c r="H12" s="15">
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>25.937424601000018</v>
       </c>
       <c r="I12" s="15">
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>51.874849202000036</v>
       </c>
       <c r="J12" s="9">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>4.7158953820000038</v>
       </c>
       <c r="K12" s="9">
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>7.0738430730000044</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>4.7158953820000038</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1269,40 +1409,57 @@
         <v>24</v>
       </c>
       <c r="C13" s="9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D13" s="15">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35.843207880740025</v>
       </c>
       <c r="E13" s="15">
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>17.921603940370012</v>
       </c>
       <c r="F13" s="15">
-        <v>120</v>
+        <f t="shared" si="6"/>
+        <v>179.21603940370011</v>
       </c>
       <c r="G13" s="15">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>89.608019701850054</v>
       </c>
       <c r="H13" s="15">
-        <v>65</v>
+        <f t="shared" si="4"/>
+        <v>28.531167061100021</v>
       </c>
       <c r="I13" s="15">
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>57.062334122200042</v>
       </c>
       <c r="J13" s="9">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>5.1874849202000046</v>
       </c>
       <c r="K13" s="9">
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>7.7812273803000052</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>5.1874849202000046</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1313,40 +1470,57 @@
         <v>25</v>
       </c>
       <c r="C14" s="9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D14" s="15">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>46.596170244962032</v>
       </c>
       <c r="E14" s="15">
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>23.298085122481016</v>
       </c>
       <c r="F14" s="15">
-        <v>130</v>
+        <f t="shared" si="6"/>
+        <v>232.98085122481015</v>
       </c>
       <c r="G14" s="15">
-        <v>65</v>
+        <f t="shared" si="3"/>
+        <v>116.49042561240508</v>
       </c>
       <c r="H14" s="15">
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>31.384283767210025</v>
       </c>
       <c r="I14" s="15">
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>62.76856753442005</v>
       </c>
       <c r="J14" s="9">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>5.7062334122200058</v>
       </c>
       <c r="K14" s="9">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>8.5593501183300056</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>5.7062334122200058</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1357,40 +1531,57 @@
         <v>26</v>
       </c>
       <c r="C15" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D15" s="15">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>60.575021318450645</v>
       </c>
       <c r="E15" s="15">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>30.287510659225322</v>
       </c>
       <c r="F15" s="15">
-        <v>140</v>
+        <f t="shared" si="6"/>
+        <v>302.87510659225319</v>
       </c>
       <c r="G15" s="15">
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>151.43755329612659</v>
       </c>
       <c r="H15" s="15">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>34.522712143931031</v>
       </c>
       <c r="I15" s="15">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>69.045424287862062</v>
       </c>
       <c r="J15" s="9">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>6.276856753442007</v>
       </c>
       <c r="K15" s="9">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>9.4152851301630065</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>6.276856753442007</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1401,34 +1592,43 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D16" s="15">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>78.747527713985846</v>
       </c>
       <c r="E16" s="15">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>39.373763856992923</v>
       </c>
       <c r="F16" s="15">
-        <v>150</v>
+        <f t="shared" si="6"/>
+        <v>393.73763856992917</v>
       </c>
       <c r="G16" s="15">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>196.86881928496459</v>
       </c>
       <c r="H16" s="15">
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>37.974983358324138</v>
       </c>
       <c r="I16" s="15">
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>75.949966716648277</v>
       </c>
       <c r="J16" s="9">
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>6.9045424287862085</v>
       </c>
       <c r="K16" s="9">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>10.356813643179308</v>
       </c>
       <c r="L16" s="9">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>6.9045424287862085</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>13</v>
@@ -1436,8 +1636,16 @@
       <c r="N16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -1445,1449 +1653,1875 @@
         <v>28</v>
       </c>
       <c r="C17" s="22">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D17" s="23">
-        <v>70</v>
+        <f t="shared" ref="D17:D46" si="12">D16*P17</f>
+        <v>102.3717860281816</v>
       </c>
       <c r="E17" s="23">
-        <v>65</v>
+        <f t="shared" ref="E17:E46" si="13">E16*P17</f>
+        <v>51.185893014090802</v>
       </c>
       <c r="F17" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>511.85893014090794</v>
       </c>
       <c r="G17" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>255.92946507045397</v>
       </c>
       <c r="H17" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>41.772481694156554</v>
       </c>
       <c r="I17" s="23">
-        <v>85</v>
-      </c>
-      <c r="J17" s="22">
-        <v>5</v>
-      </c>
-      <c r="K17" s="22">
-        <v>7</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>83.544963388313107</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="10"/>
+        <v>7.5949966716648296</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="7"/>
+        <v>11.39249500749724</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="11"/>
+        <v>7.5949966716648296</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="22">
         <v>49</v>
       </c>
-      <c r="C18" s="22">
-        <v>30</v>
-      </c>
       <c r="D18" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>133.08332183663609</v>
       </c>
       <c r="E18" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>66.541660918318044</v>
       </c>
       <c r="F18" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>665.4166091831803</v>
       </c>
       <c r="G18" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>332.70830459159015</v>
       </c>
       <c r="H18" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>45.949729863572216</v>
       </c>
       <c r="I18" s="23">
-        <v>85</v>
-      </c>
-      <c r="J18" s="22">
-        <v>5</v>
-      </c>
-      <c r="K18" s="22">
-        <v>7</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>91.899459727144432</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="10"/>
+        <v>8.3544963388313125</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="7"/>
+        <v>12.531744508246966</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="11"/>
+        <v>8.3544963388313125</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C19" s="22">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D19" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>173.00831838762693</v>
       </c>
       <c r="E19" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>86.504159193813464</v>
       </c>
       <c r="F19" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>865.04159193813439</v>
       </c>
       <c r="G19" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>432.52079596906719</v>
       </c>
       <c r="H19" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>50.544702849929443</v>
       </c>
       <c r="I19" s="23">
-        <v>85</v>
-      </c>
-      <c r="J19" s="22">
-        <v>5</v>
-      </c>
-      <c r="K19" s="22">
-        <v>7</v>
-      </c>
-      <c r="L19" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>101.08940569985889</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="10"/>
+        <v>9.1899459727144439</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="7"/>
+        <v>13.784918959071664</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="11"/>
+        <v>9.1899459727144439</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C20" s="22">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D20" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>224.91081390391503</v>
       </c>
       <c r="E20" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>112.45540695195751</v>
       </c>
       <c r="F20" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>1124.5540695195748</v>
       </c>
       <c r="G20" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>562.2770347597874</v>
       </c>
       <c r="H20" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>55.599173134922395</v>
       </c>
       <c r="I20" s="23">
-        <v>85</v>
-      </c>
-      <c r="J20" s="22">
-        <v>5</v>
-      </c>
-      <c r="K20" s="22">
-        <v>7</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>111.19834626984479</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="10"/>
+        <v>10.108940569985888</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="7"/>
+        <v>15.163410854978832</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="11"/>
+        <v>10.108940569985888</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C21" s="22">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D21" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>292.38405807508957</v>
       </c>
       <c r="E21" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>146.19202903754478</v>
       </c>
       <c r="F21" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>1461.9202903754474</v>
       </c>
       <c r="G21" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>730.9601451877237</v>
       </c>
       <c r="H21" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>61.159090448414638</v>
       </c>
       <c r="I21" s="23">
-        <v>85</v>
-      </c>
-      <c r="J21" s="22">
-        <v>5</v>
-      </c>
-      <c r="K21" s="22">
-        <v>7</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>122.31818089682928</v>
+      </c>
+      <c r="J21" s="23">
+        <f t="shared" si="10"/>
+        <v>11.119834626984478</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="7"/>
+        <v>16.679751940476716</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="11"/>
+        <v>11.119834626984478</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C22" s="22">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D22" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>380.09927549761647</v>
       </c>
       <c r="E22" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>190.04963774880824</v>
       </c>
       <c r="F22" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>1900.4963774880816</v>
       </c>
       <c r="G22" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>950.24818874404082</v>
       </c>
       <c r="H22" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>67.274999493256104</v>
       </c>
       <c r="I22" s="23">
-        <v>85</v>
-      </c>
-      <c r="J22" s="22">
-        <v>5</v>
-      </c>
-      <c r="K22" s="22">
-        <v>7</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>134.54999898651221</v>
+      </c>
+      <c r="J22" s="23">
+        <f t="shared" si="10"/>
+        <v>12.231818089682926</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="7"/>
+        <v>18.347727134524391</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="11"/>
+        <v>12.231818089682926</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C23" s="22">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D23" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>494.12905814690146</v>
       </c>
       <c r="E23" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>247.06452907345073</v>
       </c>
       <c r="F23" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>2470.645290734506</v>
       </c>
       <c r="G23" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>1235.322645367253</v>
       </c>
       <c r="H23" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>74.002499442581723</v>
       </c>
       <c r="I23" s="23">
-        <v>85</v>
-      </c>
-      <c r="J23" s="22">
-        <v>5</v>
-      </c>
-      <c r="K23" s="22">
-        <v>7</v>
-      </c>
-      <c r="L23" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>148.00499888516345</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="10"/>
+        <v>13.45499989865122</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="7"/>
+        <v>20.182499847976832</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="11"/>
+        <v>13.45499989865122</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C24" s="22">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D24" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>642.36777559097186</v>
       </c>
       <c r="E24" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>321.18388779548593</v>
       </c>
       <c r="F24" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>3211.8388779548582</v>
       </c>
       <c r="G24" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>1605.9194389774291</v>
       </c>
       <c r="H24" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>81.402749386839901</v>
       </c>
       <c r="I24" s="23">
-        <v>85</v>
-      </c>
-      <c r="J24" s="22">
-        <v>5</v>
-      </c>
-      <c r="K24" s="22">
-        <v>7</v>
-      </c>
-      <c r="L24" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>162.8054987736798</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="10"/>
+        <v>14.800499888516343</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="7"/>
+        <v>22.200749832774516</v>
+      </c>
+      <c r="L24" s="23">
+        <f t="shared" si="11"/>
+        <v>14.800499888516343</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C25" s="22">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D25" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>835.07810826826346</v>
       </c>
       <c r="E25" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>417.53905413413173</v>
       </c>
       <c r="F25" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>4175.3905413413158</v>
       </c>
       <c r="G25" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>2087.6952706706579</v>
       </c>
       <c r="H25" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>89.543024325523902</v>
       </c>
       <c r="I25" s="23">
-        <v>85</v>
-      </c>
-      <c r="J25" s="22">
-        <v>5</v>
-      </c>
-      <c r="K25" s="22">
-        <v>7</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>179.0860486510478</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="10"/>
+        <v>16.280549877367978</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="7"/>
+        <v>24.420824816051969</v>
+      </c>
+      <c r="L25" s="23">
+        <f t="shared" si="11"/>
+        <v>16.280549877367978</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C26" s="22">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D26" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>1085.6015407487425</v>
       </c>
       <c r="E26" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>542.80077037437127</v>
       </c>
       <c r="F26" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>5428.0077037437104</v>
       </c>
       <c r="G26" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>2714.0038518718552</v>
       </c>
       <c r="H26" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>98.497326758076298</v>
       </c>
       <c r="I26" s="23">
-        <v>85</v>
-      </c>
-      <c r="J26" s="22">
-        <v>5</v>
-      </c>
-      <c r="K26" s="22">
-        <v>7</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>196.9946535161526</v>
+      </c>
+      <c r="J26" s="23">
+        <f t="shared" si="10"/>
+        <v>17.908604865104778</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="7"/>
+        <v>26.862907297657166</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="11"/>
+        <v>17.908604865104778</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C27" s="22">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D27" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>1411.2820029733653</v>
       </c>
       <c r="E27" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>705.64100148668263</v>
       </c>
       <c r="F27" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>7056.410014866824</v>
       </c>
       <c r="G27" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>3528.205007433412</v>
       </c>
       <c r="H27" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>108.34705943388394</v>
       </c>
       <c r="I27" s="23">
-        <v>85</v>
-      </c>
-      <c r="J27" s="22">
-        <v>5</v>
-      </c>
-      <c r="K27" s="22">
-        <v>7</v>
-      </c>
-      <c r="L27" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>216.69411886776788</v>
+      </c>
+      <c r="J27" s="23">
+        <f t="shared" si="10"/>
+        <v>19.699465351615256</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="7"/>
+        <v>29.549198027422886</v>
+      </c>
+      <c r="L27" s="23">
+        <f t="shared" si="11"/>
+        <v>19.699465351615256</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C28" s="22">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D28" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>1834.6666038653748</v>
       </c>
       <c r="E28" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>917.33330193268739</v>
       </c>
       <c r="F28" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>9173.3330193268721</v>
       </c>
       <c r="G28" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>4586.666509663436</v>
       </c>
       <c r="H28" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>119.18176537727234</v>
       </c>
       <c r="I28" s="23">
-        <v>85</v>
-      </c>
-      <c r="J28" s="22">
-        <v>5</v>
-      </c>
-      <c r="K28" s="22">
-        <v>7</v>
-      </c>
-      <c r="L28" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>238.36353075454468</v>
+      </c>
+      <c r="J28" s="23">
+        <f t="shared" si="10"/>
+        <v>21.669411886776782</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="7"/>
+        <v>32.504117830165178</v>
+      </c>
+      <c r="L28" s="23">
+        <f t="shared" si="11"/>
+        <v>21.669411886776782</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C29" s="22">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D29" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>2385.0665850249875</v>
       </c>
       <c r="E29" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>1192.5332925124937</v>
       </c>
       <c r="F29" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>11925.332925124934</v>
       </c>
       <c r="G29" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>5962.6664625624671</v>
       </c>
       <c r="H29" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>131.09994191499959</v>
       </c>
       <c r="I29" s="23">
-        <v>85</v>
-      </c>
-      <c r="J29" s="22">
-        <v>5</v>
-      </c>
-      <c r="K29" s="22">
-        <v>7</v>
-      </c>
-      <c r="L29" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>262.19988382999918</v>
+      </c>
+      <c r="J29" s="23">
+        <f t="shared" si="10"/>
+        <v>23.836353075454461</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="7"/>
+        <v>35.754529613181703</v>
+      </c>
+      <c r="L29" s="23">
+        <f t="shared" si="11"/>
+        <v>23.836353075454461</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C30" s="22">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D30" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>3100.5865605324839</v>
       </c>
       <c r="E30" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>1550.2932802662419</v>
       </c>
       <c r="F30" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>15502.932802662415</v>
       </c>
       <c r="G30" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>7751.4664013312076</v>
       </c>
       <c r="H30" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>144.20993610649955</v>
       </c>
       <c r="I30" s="23">
-        <v>85</v>
-      </c>
-      <c r="J30" s="22">
-        <v>5</v>
-      </c>
-      <c r="K30" s="22">
-        <v>7</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>288.41987221299911</v>
+      </c>
+      <c r="J30" s="23">
+        <f t="shared" si="10"/>
+        <v>26.219988382999908</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" si="7"/>
+        <v>39.329982574499873</v>
+      </c>
+      <c r="L30" s="23">
+        <f t="shared" si="11"/>
+        <v>26.219988382999908</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C31" s="22">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D31" s="23">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>4030.7625286922294</v>
       </c>
       <c r="E31" s="23">
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>2015.3812643461147</v>
       </c>
       <c r="F31" s="23">
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>20153.81264346114</v>
       </c>
       <c r="G31" s="23">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>10076.90632173057</v>
       </c>
       <c r="H31" s="23">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>158.63092971714951</v>
       </c>
       <c r="I31" s="23">
-        <v>85</v>
-      </c>
-      <c r="J31" s="22">
-        <v>5</v>
-      </c>
-      <c r="K31" s="22">
-        <v>7</v>
-      </c>
-      <c r="L31" s="22">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>317.26185943429903</v>
+      </c>
+      <c r="J31" s="23">
+        <f t="shared" si="10"/>
+        <v>28.841987221299902</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="7"/>
+        <v>43.262980831949861</v>
+      </c>
+      <c r="L31" s="23">
+        <f t="shared" si="11"/>
+        <v>28.841987221299902</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C32" s="20">
-        <v>30</v>
-      </c>
-      <c r="D32" s="20">
-        <v>70</v>
-      </c>
-      <c r="E32" s="20">
-        <v>65</v>
-      </c>
-      <c r="F32" s="20">
-        <v>160</v>
-      </c>
-      <c r="G32" s="20">
-        <v>80</v>
-      </c>
-      <c r="H32" s="20">
-        <v>85</v>
-      </c>
-      <c r="I32" s="20">
-        <v>85</v>
-      </c>
-      <c r="J32" s="20">
-        <v>5</v>
-      </c>
-      <c r="K32" s="20">
-        <v>7</v>
-      </c>
-      <c r="L32" s="20">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="12"/>
+        <v>5239.9912872998984</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="13"/>
+        <v>2619.9956436499492</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" si="6"/>
+        <v>26199.956436499484</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="3"/>
+        <v>13099.978218249742</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="4"/>
+        <v>174.49402268886448</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="5"/>
+        <v>348.98804537772895</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="10"/>
+        <v>31.726185943429897</v>
+      </c>
+      <c r="K32" s="24">
+        <f t="shared" si="7"/>
+        <v>47.589278915144853</v>
+      </c>
+      <c r="L32" s="24">
+        <f t="shared" si="11"/>
+        <v>31.726185943429897</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C33" s="20">
-        <v>30</v>
-      </c>
-      <c r="D33" s="20">
-        <v>70</v>
-      </c>
-      <c r="E33" s="20">
-        <v>65</v>
-      </c>
-      <c r="F33" s="20">
-        <v>160</v>
-      </c>
-      <c r="G33" s="20">
-        <v>80</v>
-      </c>
-      <c r="H33" s="20">
-        <v>85</v>
-      </c>
-      <c r="I33" s="20">
-        <v>85</v>
-      </c>
-      <c r="J33" s="20">
-        <v>5</v>
-      </c>
-      <c r="K33" s="20">
-        <v>7</v>
-      </c>
-      <c r="L33" s="20">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="D33" s="24">
+        <f t="shared" si="12"/>
+        <v>6811.9886734898682</v>
+      </c>
+      <c r="E33" s="24">
+        <f t="shared" si="13"/>
+        <v>3405.9943367449341</v>
+      </c>
+      <c r="F33" s="24">
+        <f t="shared" si="6"/>
+        <v>34059.943367449334</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="3"/>
+        <v>17029.971683724667</v>
+      </c>
+      <c r="H33" s="24">
+        <f t="shared" si="4"/>
+        <v>191.94342495775095</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" si="5"/>
+        <v>383.8868499155019</v>
+      </c>
+      <c r="J33" s="24">
+        <f t="shared" si="10"/>
+        <v>34.898804537772889</v>
+      </c>
+      <c r="K33" s="24">
+        <f t="shared" si="7"/>
+        <v>52.348206806659341</v>
+      </c>
+      <c r="L33" s="24">
+        <f t="shared" si="11"/>
+        <v>34.898804537772889</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C34" s="20">
-        <v>30</v>
-      </c>
-      <c r="D34" s="20">
-        <v>70</v>
-      </c>
-      <c r="E34" s="20">
-        <v>65</v>
-      </c>
-      <c r="F34" s="20">
-        <v>160</v>
-      </c>
-      <c r="G34" s="20">
-        <v>80</v>
-      </c>
-      <c r="H34" s="20">
-        <v>85</v>
-      </c>
-      <c r="I34" s="20">
-        <v>85</v>
-      </c>
-      <c r="J34" s="20">
-        <v>5</v>
-      </c>
-      <c r="K34" s="20">
-        <v>7</v>
-      </c>
-      <c r="L34" s="20">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D34" s="24">
+        <f t="shared" si="12"/>
+        <v>8855.5852755368287</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="13"/>
+        <v>4427.7926377684144</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="6"/>
+        <v>44277.926377684133</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="3"/>
+        <v>22138.963188842066</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="4"/>
+        <v>211.13776745352607</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="5"/>
+        <v>422.27553490705213</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="10"/>
+        <v>38.388684991550178</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="7"/>
+        <v>57.583027487325282</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="11"/>
+        <v>38.388684991550178</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C35" s="20">
-        <v>30</v>
-      </c>
-      <c r="D35" s="20">
-        <v>70</v>
-      </c>
-      <c r="E35" s="20">
-        <v>65</v>
-      </c>
-      <c r="F35" s="20">
-        <v>160</v>
-      </c>
-      <c r="G35" s="20">
-        <v>80</v>
-      </c>
-      <c r="H35" s="20">
-        <v>85</v>
-      </c>
-      <c r="I35" s="20">
-        <v>85</v>
-      </c>
-      <c r="J35" s="20">
-        <v>5</v>
-      </c>
-      <c r="K35" s="20">
-        <v>7</v>
-      </c>
-      <c r="L35" s="20">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D35" s="24">
+        <f t="shared" si="12"/>
+        <v>11512.260858197878</v>
+      </c>
+      <c r="E35" s="24">
+        <f t="shared" si="13"/>
+        <v>5756.1304290989392</v>
+      </c>
+      <c r="F35" s="24">
+        <f t="shared" si="6"/>
+        <v>57561.304290989377</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="3"/>
+        <v>28780.652145494689</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="4"/>
+        <v>232.25154419887869</v>
+      </c>
+      <c r="I35" s="24">
+        <f t="shared" si="5"/>
+        <v>464.50308839775738</v>
+      </c>
+      <c r="J35" s="24">
+        <f t="shared" si="10"/>
+        <v>42.227553490705198</v>
+      </c>
+      <c r="K35" s="24">
+        <f t="shared" si="7"/>
+        <v>63.341330236057814</v>
+      </c>
+      <c r="L35" s="24">
+        <f t="shared" si="11"/>
+        <v>42.227553490705198</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C36" s="20">
-        <v>30</v>
-      </c>
-      <c r="D36" s="20">
-        <v>70</v>
-      </c>
-      <c r="E36" s="20">
-        <v>65</v>
-      </c>
-      <c r="F36" s="20">
-        <v>160</v>
-      </c>
-      <c r="G36" s="20">
-        <v>80</v>
-      </c>
-      <c r="H36" s="20">
-        <v>85</v>
-      </c>
-      <c r="I36" s="20">
-        <v>85</v>
-      </c>
-      <c r="J36" s="20">
-        <v>5</v>
-      </c>
-      <c r="K36" s="20">
-        <v>7</v>
-      </c>
-      <c r="L36" s="20">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="D36" s="24">
+        <f t="shared" si="12"/>
+        <v>14965.939115657242</v>
+      </c>
+      <c r="E36" s="24">
+        <f t="shared" si="13"/>
+        <v>7482.969557828621</v>
+      </c>
+      <c r="F36" s="24">
+        <f t="shared" si="6"/>
+        <v>74829.695578286191</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="3"/>
+        <v>37414.847789143096</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="4"/>
+        <v>255.47669861876659</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="5"/>
+        <v>510.95339723753318</v>
+      </c>
+      <c r="J36" s="24">
+        <f t="shared" si="10"/>
+        <v>46.450308839775722</v>
+      </c>
+      <c r="K36" s="24">
+        <f t="shared" si="7"/>
+        <v>69.675463259663601</v>
+      </c>
+      <c r="L36" s="24">
+        <f t="shared" si="11"/>
+        <v>46.450308839775722</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C37" s="20">
-        <v>30</v>
-      </c>
-      <c r="D37" s="20">
-        <v>70</v>
-      </c>
-      <c r="E37" s="20">
-        <v>65</v>
-      </c>
-      <c r="F37" s="20">
-        <v>160</v>
-      </c>
-      <c r="G37" s="20">
-        <v>80</v>
-      </c>
-      <c r="H37" s="20">
-        <v>85</v>
-      </c>
-      <c r="I37" s="20">
-        <v>85</v>
-      </c>
-      <c r="J37" s="20">
-        <v>5</v>
-      </c>
-      <c r="K37" s="20">
-        <v>7</v>
-      </c>
-      <c r="L37" s="20">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="D37" s="24">
+        <f t="shared" si="12"/>
+        <v>19455.720850354413</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" si="13"/>
+        <v>9727.8604251772067</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="6"/>
+        <v>97278.604251772049</v>
+      </c>
+      <c r="G37" s="24">
+        <f t="shared" si="3"/>
+        <v>48639.302125886024</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" si="4"/>
+        <v>281.02436848064326</v>
+      </c>
+      <c r="I37" s="24">
+        <f t="shared" si="5"/>
+        <v>562.04873696128652</v>
+      </c>
+      <c r="J37" s="24">
+        <f t="shared" si="10"/>
+        <v>51.095339723753298</v>
+      </c>
+      <c r="K37" s="24">
+        <f t="shared" si="7"/>
+        <v>76.643009585629969</v>
+      </c>
+      <c r="L37" s="24">
+        <f t="shared" si="11"/>
+        <v>51.095339723753298</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C38" s="20">
-        <v>30</v>
-      </c>
-      <c r="D38" s="20">
-        <v>70</v>
-      </c>
-      <c r="E38" s="20">
-        <v>65</v>
-      </c>
-      <c r="F38" s="20">
-        <v>160</v>
-      </c>
-      <c r="G38" s="20">
-        <v>80</v>
-      </c>
-      <c r="H38" s="20">
-        <v>85</v>
-      </c>
-      <c r="I38" s="20">
-        <v>85</v>
-      </c>
-      <c r="J38" s="20">
-        <v>5</v>
-      </c>
-      <c r="K38" s="20">
-        <v>7</v>
-      </c>
-      <c r="L38" s="20">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="D38" s="24">
+        <f t="shared" si="12"/>
+        <v>25292.43710546074</v>
+      </c>
+      <c r="E38" s="24">
+        <f t="shared" si="13"/>
+        <v>12646.21855273037</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="6"/>
+        <v>126462.18552730366</v>
+      </c>
+      <c r="G38" s="24">
+        <f t="shared" si="3"/>
+        <v>63231.092763651832</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="4"/>
+        <v>309.12680532870763</v>
+      </c>
+      <c r="I38" s="24">
+        <f t="shared" si="5"/>
+        <v>618.25361065741527</v>
+      </c>
+      <c r="J38" s="24">
+        <f t="shared" si="10"/>
+        <v>56.204873696128629</v>
+      </c>
+      <c r="K38" s="24">
+        <f t="shared" si="7"/>
+        <v>84.307310544192973</v>
+      </c>
+      <c r="L38" s="24">
+        <f t="shared" si="11"/>
+        <v>56.204873696128629</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C39" s="20">
-        <v>30</v>
-      </c>
-      <c r="D39" s="20">
-        <v>70</v>
-      </c>
-      <c r="E39" s="20">
-        <v>65</v>
-      </c>
-      <c r="F39" s="20">
-        <v>160</v>
-      </c>
-      <c r="G39" s="20">
-        <v>80</v>
-      </c>
-      <c r="H39" s="20">
-        <v>85</v>
-      </c>
-      <c r="I39" s="20">
-        <v>85</v>
-      </c>
-      <c r="J39" s="20">
-        <v>5</v>
-      </c>
-      <c r="K39" s="20">
-        <v>7</v>
-      </c>
-      <c r="L39" s="20">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="D39" s="24">
+        <f t="shared" si="12"/>
+        <v>32880.168237098966</v>
+      </c>
+      <c r="E39" s="24">
+        <f t="shared" si="13"/>
+        <v>16440.084118549483</v>
+      </c>
+      <c r="F39" s="24">
+        <f t="shared" si="6"/>
+        <v>164400.84118549476</v>
+      </c>
+      <c r="G39" s="24">
+        <f t="shared" si="3"/>
+        <v>82200.420592747381</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="4"/>
+        <v>340.03948586157844</v>
+      </c>
+      <c r="I39" s="24">
+        <f t="shared" si="5"/>
+        <v>680.07897172315688</v>
+      </c>
+      <c r="J39" s="24">
+        <f t="shared" si="10"/>
+        <v>61.825361065741497</v>
+      </c>
+      <c r="K39" s="24">
+        <f t="shared" si="7"/>
+        <v>92.738041598612284</v>
+      </c>
+      <c r="L39" s="24">
+        <f t="shared" si="11"/>
+        <v>61.825361065741497</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C40" s="20">
-        <v>30</v>
-      </c>
-      <c r="D40" s="20">
-        <v>70</v>
-      </c>
-      <c r="E40" s="20">
-        <v>65</v>
-      </c>
-      <c r="F40" s="20">
-        <v>160</v>
-      </c>
-      <c r="G40" s="20">
-        <v>80</v>
-      </c>
-      <c r="H40" s="20">
-        <v>85</v>
-      </c>
-      <c r="I40" s="20">
-        <v>85</v>
-      </c>
-      <c r="J40" s="20">
-        <v>5</v>
-      </c>
-      <c r="K40" s="20">
-        <v>7</v>
-      </c>
-      <c r="L40" s="20">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="D40" s="24">
+        <f t="shared" si="12"/>
+        <v>42744.218708228655</v>
+      </c>
+      <c r="E40" s="24">
+        <f t="shared" si="13"/>
+        <v>21372.109354114327</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" si="6"/>
+        <v>213721.0935411432</v>
+      </c>
+      <c r="G40" s="24">
+        <f t="shared" si="3"/>
+        <v>106860.5467705716</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="4"/>
+        <v>374.04343444773633</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="5"/>
+        <v>748.08686889547266</v>
+      </c>
+      <c r="J40" s="24">
+        <f t="shared" si="10"/>
+        <v>68.007897172315651</v>
+      </c>
+      <c r="K40" s="24">
+        <f t="shared" si="7"/>
+        <v>102.01184575847353</v>
+      </c>
+      <c r="L40" s="24">
+        <f t="shared" si="11"/>
+        <v>68.007897172315651</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C41" s="20">
-        <v>30</v>
-      </c>
-      <c r="D41" s="20">
-        <v>70</v>
-      </c>
-      <c r="E41" s="20">
-        <v>65</v>
-      </c>
-      <c r="F41" s="20">
-        <v>160</v>
-      </c>
-      <c r="G41" s="20">
-        <v>80</v>
-      </c>
-      <c r="H41" s="20">
-        <v>85</v>
-      </c>
-      <c r="I41" s="20">
-        <v>85</v>
-      </c>
-      <c r="J41" s="20">
-        <v>5</v>
-      </c>
-      <c r="K41" s="20">
-        <v>7</v>
-      </c>
-      <c r="L41" s="20">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="D41" s="24">
+        <f t="shared" si="12"/>
+        <v>55567.484320697251</v>
+      </c>
+      <c r="E41" s="24">
+        <f t="shared" si="13"/>
+        <v>27783.742160348625</v>
+      </c>
+      <c r="F41" s="24">
+        <f t="shared" si="6"/>
+        <v>277837.42160348617</v>
+      </c>
+      <c r="G41" s="24">
+        <f t="shared" si="3"/>
+        <v>138918.71080174309</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="4"/>
+        <v>411.44777789250998</v>
+      </c>
+      <c r="I41" s="24">
+        <f t="shared" si="5"/>
+        <v>822.89555578501995</v>
+      </c>
+      <c r="J41" s="24">
+        <f t="shared" si="10"/>
+        <v>74.808686889547218</v>
+      </c>
+      <c r="K41" s="24">
+        <f t="shared" si="7"/>
+        <v>112.21303033432089</v>
+      </c>
+      <c r="L41" s="24">
+        <f t="shared" si="11"/>
+        <v>74.808686889547218</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C42" s="20">
-        <v>30</v>
-      </c>
-      <c r="D42" s="20">
-        <v>70</v>
-      </c>
-      <c r="E42" s="20">
-        <v>65</v>
-      </c>
-      <c r="F42" s="20">
-        <v>160</v>
-      </c>
-      <c r="G42" s="20">
-        <v>80</v>
-      </c>
-      <c r="H42" s="20">
-        <v>85</v>
-      </c>
-      <c r="I42" s="20">
-        <v>85</v>
-      </c>
-      <c r="J42" s="20">
-        <v>5</v>
-      </c>
-      <c r="K42" s="20">
-        <v>7</v>
-      </c>
-      <c r="L42" s="20">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="D42" s="24">
+        <f t="shared" si="12"/>
+        <v>72237.729616906436</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" si="13"/>
+        <v>36118.864808453218</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="6"/>
+        <v>361188.64808453206</v>
+      </c>
+      <c r="G42" s="24">
+        <f t="shared" si="3"/>
+        <v>180594.32404226603</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="4"/>
+        <v>452.59255568176098</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="5"/>
+        <v>905.18511136352197</v>
+      </c>
+      <c r="J42" s="24">
+        <f t="shared" si="10"/>
+        <v>82.289555578501947</v>
+      </c>
+      <c r="K42" s="24">
+        <f t="shared" si="7"/>
+        <v>123.43433336775298</v>
+      </c>
+      <c r="L42" s="24">
+        <f t="shared" si="11"/>
+        <v>82.289555578501947</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C43" s="20">
-        <v>30</v>
-      </c>
-      <c r="D43" s="20">
-        <v>70</v>
-      </c>
-      <c r="E43" s="20">
-        <v>65</v>
-      </c>
-      <c r="F43" s="20">
-        <v>160</v>
-      </c>
-      <c r="G43" s="20">
-        <v>80</v>
-      </c>
-      <c r="H43" s="20">
-        <v>85</v>
-      </c>
-      <c r="I43" s="20">
-        <v>85</v>
-      </c>
-      <c r="J43" s="20">
-        <v>5</v>
-      </c>
-      <c r="K43" s="20">
-        <v>7</v>
-      </c>
-      <c r="L43" s="20">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="D43" s="24">
+        <f t="shared" si="12"/>
+        <v>93909.048501978366</v>
+      </c>
+      <c r="E43" s="24">
+        <f t="shared" si="13"/>
+        <v>46954.524250989183</v>
+      </c>
+      <c r="F43" s="24">
+        <f t="shared" si="6"/>
+        <v>469545.24250989169</v>
+      </c>
+      <c r="G43" s="24">
+        <f t="shared" si="3"/>
+        <v>234772.62125494584</v>
+      </c>
+      <c r="H43" s="24">
+        <f t="shared" si="4"/>
+        <v>497.8518112499371</v>
+      </c>
+      <c r="I43" s="24">
+        <f t="shared" si="5"/>
+        <v>995.7036224998742</v>
+      </c>
+      <c r="J43" s="24">
+        <f t="shared" si="10"/>
+        <v>90.518511136352146</v>
+      </c>
+      <c r="K43" s="24">
+        <f t="shared" si="7"/>
+        <v>135.77776670452829</v>
+      </c>
+      <c r="L43" s="24">
+        <f t="shared" si="11"/>
+        <v>90.518511136352146</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C44" s="20">
-        <v>30</v>
-      </c>
-      <c r="D44" s="20">
-        <v>70</v>
-      </c>
-      <c r="E44" s="20">
-        <v>65</v>
-      </c>
-      <c r="F44" s="20">
-        <v>160</v>
-      </c>
-      <c r="G44" s="20">
-        <v>80</v>
-      </c>
-      <c r="H44" s="20">
-        <v>85</v>
-      </c>
-      <c r="I44" s="20">
-        <v>85</v>
-      </c>
-      <c r="J44" s="20">
-        <v>5</v>
-      </c>
-      <c r="K44" s="20">
-        <v>7</v>
-      </c>
-      <c r="L44" s="20">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D44" s="24">
+        <f t="shared" si="12"/>
+        <v>122081.76305257189</v>
+      </c>
+      <c r="E44" s="24">
+        <f t="shared" si="13"/>
+        <v>61040.881526285943</v>
+      </c>
+      <c r="F44" s="24">
+        <f t="shared" si="6"/>
+        <v>610408.81526285922</v>
+      </c>
+      <c r="G44" s="24">
+        <f t="shared" si="3"/>
+        <v>305204.40763142961</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" si="4"/>
+        <v>547.63699237493086</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="5"/>
+        <v>1095.2739847498617</v>
+      </c>
+      <c r="J44" s="24">
+        <f t="shared" si="10"/>
+        <v>99.570362249987369</v>
+      </c>
+      <c r="K44" s="24">
+        <f t="shared" si="7"/>
+        <v>149.35554337498112</v>
+      </c>
+      <c r="L44" s="24">
+        <f t="shared" si="11"/>
+        <v>99.570362249987369</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C45" s="20">
-        <v>30</v>
-      </c>
-      <c r="D45" s="20">
-        <v>70</v>
-      </c>
-      <c r="E45" s="20">
-        <v>65</v>
-      </c>
-      <c r="F45" s="20">
-        <v>160</v>
-      </c>
-      <c r="G45" s="20">
-        <v>80</v>
-      </c>
-      <c r="H45" s="20">
-        <v>85</v>
-      </c>
-      <c r="I45" s="20">
-        <v>85</v>
-      </c>
-      <c r="J45" s="20">
-        <v>5</v>
-      </c>
-      <c r="K45" s="20">
-        <v>7</v>
-      </c>
-      <c r="L45" s="20">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D45" s="24">
+        <f t="shared" si="12"/>
+        <v>158706.29196834346</v>
+      </c>
+      <c r="E45" s="24">
+        <f t="shared" si="13"/>
+        <v>79353.14598417173</v>
+      </c>
+      <c r="F45" s="24">
+        <f t="shared" si="6"/>
+        <v>793531.45984171703</v>
+      </c>
+      <c r="G45" s="24">
+        <f t="shared" si="3"/>
+        <v>396765.72992085852</v>
+      </c>
+      <c r="H45" s="24">
+        <f t="shared" si="4"/>
+        <v>602.400691612424</v>
+      </c>
+      <c r="I45" s="24">
+        <f t="shared" si="5"/>
+        <v>1204.801383224848</v>
+      </c>
+      <c r="J45" s="24">
+        <f t="shared" si="10"/>
+        <v>109.52739847498611</v>
+      </c>
+      <c r="K45" s="24">
+        <f t="shared" si="7"/>
+        <v>164.29109771247926</v>
+      </c>
+      <c r="L45" s="24">
+        <f t="shared" si="11"/>
+        <v>109.52739847498611</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C46" s="20">
-        <v>30</v>
-      </c>
-      <c r="D46" s="20">
-        <v>70</v>
-      </c>
-      <c r="E46" s="20">
-        <v>65</v>
-      </c>
-      <c r="F46" s="20">
-        <v>160</v>
-      </c>
-      <c r="G46" s="20">
-        <v>80</v>
-      </c>
-      <c r="H46" s="20">
-        <v>85</v>
-      </c>
-      <c r="I46" s="20">
-        <v>85</v>
-      </c>
-      <c r="J46" s="20">
-        <v>5</v>
-      </c>
-      <c r="K46" s="20">
-        <v>7</v>
-      </c>
-      <c r="L46" s="20">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="D46" s="24">
+        <f t="shared" si="12"/>
+        <v>206318.17955884652</v>
+      </c>
+      <c r="E46" s="24">
+        <f t="shared" si="13"/>
+        <v>103159.08977942326</v>
+      </c>
+      <c r="F46" s="24">
+        <f t="shared" si="6"/>
+        <v>1031590.8977942322</v>
+      </c>
+      <c r="G46" s="24">
+        <f>G45*P46</f>
+        <v>515795.44889711612</v>
+      </c>
+      <c r="H46" s="24">
+        <f t="shared" si="4"/>
+        <v>662.64076077366644</v>
+      </c>
+      <c r="I46" s="24">
+        <f t="shared" si="5"/>
+        <v>1325.2815215473329</v>
+      </c>
+      <c r="J46" s="24">
+        <f t="shared" si="10"/>
+        <v>120.48013832248473</v>
+      </c>
+      <c r="K46" s="24">
+        <f t="shared" si="7"/>
+        <v>180.72020748372719</v>
+      </c>
+      <c r="L46" s="24">
+        <f t="shared" si="11"/>
+        <v>120.48013832248473</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="10">
-        <v>80</v>
-      </c>
-      <c r="D47" s="16">
-        <v>30000</v>
-      </c>
-      <c r="E47" s="16">
-        <v>20000</v>
-      </c>
-      <c r="F47" s="16">
-        <v>170</v>
-      </c>
-      <c r="G47" s="16">
-        <v>85</v>
-      </c>
-      <c r="H47" s="16">
-        <v>90</v>
-      </c>
-      <c r="I47" s="16">
-        <v>90</v>
-      </c>
-      <c r="J47" s="10">
-        <v>5</v>
-      </c>
-      <c r="K47" s="10">
-        <v>8</v>
-      </c>
-      <c r="L47" s="10">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="10">
-        <v>90</v>
-      </c>
-      <c r="D48" s="16">
-        <f>D47*2</f>
-        <v>60000</v>
-      </c>
-      <c r="E48" s="16">
-        <f>E47*2</f>
-        <v>40000</v>
-      </c>
-      <c r="F48" s="16">
-        <v>180</v>
-      </c>
-      <c r="G48" s="16">
-        <v>90</v>
-      </c>
-      <c r="H48" s="16">
-        <v>95</v>
-      </c>
-      <c r="I48" s="16">
-        <v>95</v>
-      </c>
-      <c r="J48" s="10">
-        <v>5</v>
-      </c>
-      <c r="K48" s="10">
-        <v>8</v>
-      </c>
-      <c r="L48" s="10">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="10">
-        <v>100</v>
-      </c>
-      <c r="D49" s="16">
-        <f>D48*2</f>
-        <v>120000</v>
-      </c>
-      <c r="E49" s="16">
-        <f>E48*2</f>
-        <v>80000</v>
-      </c>
-      <c r="F49" s="16">
-        <v>190</v>
-      </c>
-      <c r="G49" s="16">
-        <v>95</v>
-      </c>
-      <c r="H49" s="16">
-        <v>100</v>
-      </c>
-      <c r="I49" s="16">
-        <v>100</v>
-      </c>
-      <c r="J49" s="10">
-        <v>6</v>
-      </c>
-      <c r="K49" s="10">
-        <v>8</v>
-      </c>
-      <c r="L49" s="10">
-        <v>0</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="10"/>
       <c r="D50" s="16"/>
@@ -2902,9 +3536,7 @@
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
+      <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="10"/>
       <c r="D51" s="16"/>
@@ -2919,9 +3551,7 @@
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
+      <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="10"/>
       <c r="D52" s="16"/>
@@ -2936,9 +3566,7 @@
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
+      <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="10"/>
       <c r="D53" s="16"/>
@@ -2953,9 +3581,7 @@
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
+      <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
       <c r="D54" s="16"/>
@@ -2970,9 +3596,7 @@
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
+      <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="10"/>
       <c r="D55" s="16"/>
@@ -2987,9 +3611,7 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
+      <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="10"/>
       <c r="D56" s="16"/>
@@ -3004,9 +3626,7 @@
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
+      <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
       <c r="D57" s="16"/>
@@ -3021,9 +3641,7 @@
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
+      <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="10"/>
       <c r="D58" s="16"/>
@@ -3038,9 +3656,7 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
+      <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="10"/>
       <c r="D59" s="16"/>
@@ -3055,9 +3671,7 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
+      <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
       <c r="D60" s="16"/>
@@ -3072,9 +3686,7 @@
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
+      <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="10"/>
       <c r="D61" s="16"/>
@@ -3089,255 +3701,97 @@
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="11">
-        <v>35</v>
-      </c>
-      <c r="D62" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E62" s="17">
-        <v>750</v>
-      </c>
-      <c r="F62" s="17">
-        <v>200</v>
-      </c>
-      <c r="G62" s="17">
-        <v>100</v>
-      </c>
-      <c r="H62" s="17">
-        <v>110</v>
-      </c>
-      <c r="I62" s="17">
-        <v>110</v>
-      </c>
-      <c r="J62" s="11">
-        <v>6</v>
-      </c>
-      <c r="K62" s="11">
-        <v>8</v>
-      </c>
-      <c r="L62" s="11">
-        <v>0</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="11">
-        <v>40</v>
-      </c>
-      <c r="D63" s="17">
-        <v>2000</v>
-      </c>
-      <c r="E63" s="17">
-        <v>1500</v>
-      </c>
-      <c r="F63" s="17">
-        <v>210</v>
-      </c>
-      <c r="G63" s="17">
-        <v>105</v>
-      </c>
-      <c r="H63" s="17">
-        <v>115</v>
-      </c>
-      <c r="I63" s="17">
-        <v>115</v>
-      </c>
-      <c r="J63" s="11">
-        <v>6</v>
-      </c>
-      <c r="K63" s="11">
-        <v>9</v>
-      </c>
-      <c r="L63" s="11">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="11">
-        <v>45</v>
-      </c>
-      <c r="D64" s="17">
-        <v>3000</v>
-      </c>
-      <c r="E64" s="17">
-        <v>2500</v>
-      </c>
-      <c r="F64" s="17">
-        <v>220</v>
-      </c>
-      <c r="G64" s="17">
-        <v>110</v>
-      </c>
-      <c r="H64" s="17">
-        <v>120</v>
-      </c>
-      <c r="I64" s="17">
-        <v>120</v>
-      </c>
-      <c r="J64" s="11">
-        <v>6</v>
-      </c>
-      <c r="K64" s="11">
-        <v>9</v>
-      </c>
-      <c r="L64" s="11">
-        <v>0</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="11">
-        <v>50</v>
-      </c>
-      <c r="D65" s="17">
-        <v>4000</v>
-      </c>
-      <c r="E65" s="17">
-        <v>3000</v>
-      </c>
-      <c r="F65" s="17">
-        <v>230</v>
-      </c>
-      <c r="G65" s="17">
-        <v>115</v>
-      </c>
-      <c r="H65" s="17">
-        <v>125</v>
-      </c>
-      <c r="I65" s="17">
-        <v>125</v>
-      </c>
-      <c r="J65" s="11">
-        <v>7</v>
-      </c>
-      <c r="K65" s="11">
-        <v>9</v>
-      </c>
-      <c r="L65" s="11">
-        <v>0</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="11">
-        <v>55</v>
-      </c>
-      <c r="D66" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E66" s="17">
-        <v>4500</v>
-      </c>
-      <c r="F66" s="17">
-        <v>240</v>
-      </c>
-      <c r="G66" s="17">
-        <v>120</v>
-      </c>
-      <c r="H66" s="17">
-        <v>130</v>
-      </c>
-      <c r="I66" s="17">
-        <v>130</v>
-      </c>
-      <c r="J66" s="11">
-        <v>7</v>
-      </c>
-      <c r="K66" s="11">
-        <v>9</v>
-      </c>
-      <c r="L66" s="11">
-        <v>0</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="11">
-        <v>60</v>
-      </c>
-      <c r="D67" s="17">
-        <v>10000</v>
-      </c>
-      <c r="E67" s="17">
-        <v>5800</v>
-      </c>
-      <c r="F67" s="17">
-        <v>250</v>
-      </c>
-      <c r="G67" s="17">
-        <v>125</v>
-      </c>
-      <c r="H67" s="17">
-        <v>135</v>
-      </c>
-      <c r="I67" s="17">
-        <v>135</v>
-      </c>
-      <c r="J67" s="11">
-        <v>8</v>
-      </c>
-      <c r="K67" s="11">
-        <v>10</v>
-      </c>
-      <c r="L67" s="11">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>67</v>
-      </c>
+      <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
       <c r="D68" s="17"/>
@@ -3352,9 +3806,7 @@
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>68</v>
-      </c>
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
       <c r="D69" s="17"/>
@@ -3369,9 +3821,7 @@
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>69</v>
-      </c>
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
       <c r="D70" s="17"/>
@@ -3386,9 +3836,7 @@
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>70</v>
-      </c>
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
       <c r="D71" s="17"/>
@@ -3403,9 +3851,7 @@
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>71</v>
-      </c>
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
       <c r="D72" s="17"/>
@@ -3420,9 +3866,7 @@
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>72</v>
-      </c>
+      <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
       <c r="D73" s="17"/>
@@ -3437,9 +3881,7 @@
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>73</v>
-      </c>
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
       <c r="D74" s="17"/>
@@ -3454,9 +3896,7 @@
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>74</v>
-      </c>
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
       <c r="D75" s="17"/>
@@ -3471,9 +3911,7 @@
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>75</v>
-      </c>
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
       <c r="D76" s="17"/>
@@ -3488,250 +3926,82 @@
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
-        <v>76</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="12">
-        <v>110</v>
-      </c>
-      <c r="D77" s="18">
-        <f t="shared" ref="D77:I80" si="0">D78/2</f>
-        <v>1514966.625</v>
-      </c>
-      <c r="E77" s="18">
-        <f t="shared" si="0"/>
-        <v>1514966.625</v>
-      </c>
-      <c r="F77" s="18">
-        <f t="shared" si="0"/>
-        <v>12500</v>
-      </c>
-      <c r="G77" s="18">
-        <f t="shared" si="0"/>
-        <v>31250</v>
-      </c>
-      <c r="H77" s="18">
-        <f t="shared" si="0"/>
-        <v>312.5</v>
-      </c>
-      <c r="I77" s="18">
-        <f t="shared" si="0"/>
-        <v>312.5</v>
-      </c>
-      <c r="J77" s="18">
-        <f t="shared" ref="J77:J78" si="1">J78/2</f>
-        <v>15.625</v>
-      </c>
-      <c r="K77" s="18">
-        <f>K78/2</f>
-        <v>31.25</v>
-      </c>
-      <c r="L77" s="18">
-        <f t="shared" ref="L77:L78" si="2">L78/2</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="7"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
-        <v>77</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="12">
-        <v>120</v>
-      </c>
-      <c r="D78" s="18">
-        <f t="shared" si="0"/>
-        <v>3029933.25</v>
-      </c>
-      <c r="E78" s="18">
-        <f t="shared" si="0"/>
-        <v>3029933.25</v>
-      </c>
-      <c r="F78" s="18">
-        <f t="shared" si="0"/>
-        <v>25000</v>
-      </c>
-      <c r="G78" s="18">
-        <f t="shared" si="0"/>
-        <v>62500</v>
-      </c>
-      <c r="H78" s="18">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="I78" s="18">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="J78" s="18">
-        <f t="shared" si="1"/>
-        <v>31.25</v>
-      </c>
-      <c r="K78" s="18">
-        <f t="shared" ref="K78" si="3">K79/2</f>
-        <v>62.5</v>
-      </c>
-      <c r="L78" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="7"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>78</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="12">
-        <v>130</v>
-      </c>
-      <c r="D79" s="18">
-        <f t="shared" si="0"/>
-        <v>6059866.5</v>
-      </c>
-      <c r="E79" s="18">
-        <f t="shared" si="0"/>
-        <v>6059866.5</v>
-      </c>
-      <c r="F79" s="18">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-      <c r="G79" s="18">
-        <f t="shared" si="0"/>
-        <v>125000</v>
-      </c>
-      <c r="H79" s="18">
-        <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-      <c r="I79" s="18">
-        <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-      <c r="J79" s="18">
-        <f t="shared" ref="J79:L80" si="4">J80/2</f>
-        <v>62.5</v>
-      </c>
-      <c r="K79" s="18">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="L79" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="7"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="12">
-        <v>140</v>
-      </c>
-      <c r="D80" s="18">
-        <f t="shared" si="0"/>
-        <v>12119733</v>
-      </c>
-      <c r="E80" s="18">
-        <f t="shared" si="0"/>
-        <v>12119733</v>
-      </c>
-      <c r="F80" s="18">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="G80" s="18">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-      <c r="H80" s="18">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="I80" s="18">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="J80" s="18">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="K80" s="18">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="L80" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="7"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
-        <v>80</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="12">
-        <v>145</v>
-      </c>
-      <c r="D81" s="18">
-        <v>24239466</v>
-      </c>
-      <c r="E81" s="18">
-        <v>24239466</v>
-      </c>
-      <c r="F81" s="18">
-        <v>200000</v>
-      </c>
-      <c r="G81" s="18">
-        <v>500000</v>
-      </c>
-      <c r="H81" s="18">
-        <v>5000</v>
-      </c>
-      <c r="I81" s="18">
-        <v>5000</v>
-      </c>
-      <c r="J81" s="12">
-        <v>250</v>
-      </c>
-      <c r="K81" s="12">
-        <v>500</v>
-      </c>
-      <c r="L81" s="12">
-        <v>0</v>
-      </c>
-      <c r="M81" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="7"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
+      <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
       <c r="D82" s="18"/>
@@ -3746,9 +4016,7 @@
       <c r="M82" s="7"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>82</v>
-      </c>
+      <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="12"/>
       <c r="D83" s="18"/>
@@ -3763,9 +4031,7 @@
       <c r="M83" s="7"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
+      <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="12"/>
       <c r="D84" s="18"/>
@@ -3780,9 +4046,7 @@
       <c r="M84" s="7"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
-        <v>84</v>
-      </c>
+      <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="12"/>
       <c r="D85" s="18"/>
@@ -3797,9 +4061,7 @@
       <c r="M85" s="7"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
-        <v>85</v>
-      </c>
+      <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
       <c r="D86" s="18"/>
@@ -3814,9 +4076,7 @@
       <c r="M86" s="7"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
+      <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="12"/>
       <c r="D87" s="18"/>
@@ -3831,9 +4091,7 @@
       <c r="M87" s="7"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
-        <v>87</v>
-      </c>
+      <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="12"/>
       <c r="D88" s="18"/>
@@ -3848,9 +4106,7 @@
       <c r="M88" s="7"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
-        <v>88</v>
-      </c>
+      <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="12"/>
       <c r="D89" s="18"/>
@@ -3865,9 +4121,7 @@
       <c r="M89" s="7"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
-        <v>89</v>
-      </c>
+      <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="12"/>
       <c r="D90" s="18"/>
@@ -3882,9 +4136,7 @@
       <c r="M90" s="7"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
-        <v>90</v>
-      </c>
+      <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="12"/>
       <c r="D91" s="18"/>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -129,12 +129,6 @@
     <t>Devorador de luz</t>
   </si>
   <si>
-    <t>Rata gigante del túnel</t>
-  </si>
-  <si>
-    <t>Murciélago de colmillos afilados</t>
-  </si>
-  <si>
     <t>Sirena de las cuevas</t>
   </si>
   <si>
@@ -198,16 +192,25 @@
     <t>Gólem de sal</t>
   </si>
   <si>
-    <t>Espíritu de la tempestad de arena</t>
-  </si>
-  <si>
-    <t>Serpiente alada del desierto</t>
-  </si>
-  <si>
     <t>multExp</t>
   </si>
   <si>
     <t>multAll</t>
+  </si>
+  <si>
+    <t>Serpiente alada</t>
+  </si>
+  <si>
+    <t>Espíritu de la tempestad</t>
+  </si>
+  <si>
+    <t>Rata gigante</t>
+  </si>
+  <si>
+    <t>Murciélago de las cuevas</t>
+  </si>
+  <si>
+    <t>multGold</t>
   </si>
 </sst>
 </file>
@@ -667,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,10 +690,12 @@
     <col min="11" max="11" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -731,13 +736,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -748,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
       <c r="F2" s="15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="15">
         <v>10</v>
@@ -786,8 +794,11 @@
       <c r="P2" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -799,19 +810,19 @@
       </c>
       <c r="D3" s="15">
         <f>D2*P3</f>
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="E3" s="15">
         <f>E2*P3</f>
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="F3" s="15">
-        <f>F2*P3</f>
-        <v>13</v>
+        <f>F2*R3</f>
+        <v>4.8</v>
       </c>
       <c r="G3" s="15">
-        <f>G2*P3</f>
-        <v>6.5</v>
+        <f>G2*R3</f>
+        <v>2.4</v>
       </c>
       <c r="H3" s="15">
         <f>H2*O3</f>
@@ -847,8 +858,12 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f>R2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -860,19 +875,19 @@
       </c>
       <c r="D4" s="15">
         <f>D3*P4</f>
-        <v>3.3800000000000003</v>
+        <v>6.7600000000000007</v>
       </c>
       <c r="E4" s="15">
         <f>E3*P4</f>
-        <v>1.6900000000000002</v>
+        <v>3.3800000000000003</v>
       </c>
       <c r="F4" s="15">
-        <f>F3*P4</f>
-        <v>16.900000000000002</v>
+        <f>F3*R4</f>
+        <v>5.76</v>
       </c>
       <c r="G4" s="15">
-        <f>G3*P4</f>
-        <v>8.4500000000000011</v>
+        <f>G3*R4</f>
+        <v>2.88</v>
       </c>
       <c r="H4" s="15">
         <f>H3*O4</f>
@@ -908,8 +923,12 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f>R3</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -921,19 +940,19 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" ref="D5:D16" si="1">D4*P5</f>
-        <v>4.394000000000001</v>
+        <v>8.788000000000002</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" ref="E5:E16" si="2">E4*P5</f>
-        <v>2.1970000000000005</v>
+        <v>4.394000000000001</v>
       </c>
       <c r="F5" s="15">
-        <f>F4*P5</f>
-        <v>21.970000000000002</v>
+        <f>F4*R5</f>
+        <v>6.9119999999999999</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G5:G45" si="3">G4*P5</f>
-        <v>10.985000000000001</v>
+        <f t="shared" ref="G5:G46" si="3">G4*R5</f>
+        <v>3.456</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" ref="H5:H46" si="4">H4*O5</f>
@@ -969,8 +988,12 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f>R4</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -982,19 +1005,19 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>5.7122000000000019</v>
+        <v>11.424400000000004</v>
       </c>
       <c r="E6" s="15">
         <f t="shared" si="2"/>
-        <v>2.856100000000001</v>
+        <v>5.7122000000000019</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" ref="F6:F46" si="6">F5*P6</f>
-        <v>28.561000000000003</v>
+        <f t="shared" ref="F6:F46" si="6">F5*R6</f>
+        <v>8.2943999999999996</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="3"/>
-        <v>14.280500000000002</v>
+        <v>4.1471999999999998</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="4"/>
@@ -1030,8 +1053,12 @@
         <f t="shared" ref="P6:P46" si="9">P5</f>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R46" si="10">R5</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1043,19 +1070,19 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>7.4258600000000028</v>
+        <v>14.851720000000006</v>
       </c>
       <c r="E7" s="15">
         <f t="shared" si="2"/>
-        <v>3.7129300000000014</v>
+        <v>7.4258600000000028</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="6"/>
-        <v>37.129300000000008</v>
+        <v>9.9532799999999995</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="3"/>
-        <v>18.564650000000004</v>
+        <v>4.9766399999999997</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="4"/>
@@ -1066,7 +1093,7 @@
         <v>32.210200000000007</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" ref="J7:J46" si="10">J6*O7</f>
+        <f t="shared" ref="J7:J46" si="11">J6*O7</f>
         <v>2.9282000000000012</v>
       </c>
       <c r="K7" s="9">
@@ -1074,7 +1101,7 @@
         <v>4.3923000000000014</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" ref="L7:L46" si="11">L6*O7</f>
+        <f t="shared" ref="L7:L46" si="12">L6*O7</f>
         <v>2.9282000000000012</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1095,8 +1122,12 @@
         <f>SUM(N2:N91)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1108,19 +1139,19 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" si="1"/>
-        <v>9.6536180000000034</v>
+        <v>19.307236000000007</v>
       </c>
       <c r="E8" s="15">
         <f t="shared" si="2"/>
-        <v>4.8268090000000017</v>
+        <v>9.6536180000000034</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="6"/>
-        <v>48.268090000000015</v>
+        <v>11.943935999999999</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="3"/>
-        <v>24.134045000000008</v>
+        <v>5.9719679999999995</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="4"/>
@@ -1131,7 +1162,7 @@
         <v>35.43122000000001</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2210200000000015</v>
       </c>
       <c r="K8" s="9">
@@ -1139,7 +1170,7 @@
         <v>4.8315300000000017</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.2210200000000015</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1156,8 +1187,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1169,19 +1204,19 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
-        <v>12.549703400000006</v>
+        <v>25.099406800000011</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="2"/>
-        <v>6.2748517000000028</v>
+        <v>12.549703400000006</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="6"/>
-        <v>62.748517000000021</v>
+        <v>14.332723199999998</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>31.37425850000001</v>
+        <v>7.1663615999999992</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="4"/>
@@ -1192,7 +1227,7 @@
         <v>38.974342000000014</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.5431220000000021</v>
       </c>
       <c r="K9" s="9">
@@ -1200,7 +1235,7 @@
         <v>5.3146830000000023</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5431220000000021</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1217,8 +1252,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1230,19 +1269,19 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" si="1"/>
-        <v>16.314614420000009</v>
+        <v>32.629228840000017</v>
       </c>
       <c r="E10" s="15">
         <f t="shared" si="2"/>
-        <v>8.1573072100000044</v>
+        <v>16.314614420000009</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="6"/>
-        <v>81.573072100000033</v>
+        <v>17.199267839999997</v>
       </c>
       <c r="G10" s="15">
         <f t="shared" si="3"/>
-        <v>40.786536050000016</v>
+        <v>8.5996339199999987</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="4"/>
@@ -1253,7 +1292,7 @@
         <v>42.871776200000021</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.8974342000000028</v>
       </c>
       <c r="K10" s="9">
@@ -1261,7 +1300,7 @@
         <v>5.8461513000000034</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8974342000000028</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1278,8 +1317,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1291,19 +1334,19 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>21.208998746000013</v>
+        <v>42.417997492000026</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="2"/>
-        <v>10.604499373000007</v>
+        <v>21.208998746000013</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="6"/>
-        <v>106.04499373000004</v>
+        <v>20.639121407999998</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="3"/>
-        <v>53.022496865000022</v>
+        <v>10.319560703999999</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="4"/>
@@ -1314,7 +1357,7 @@
         <v>47.158953820000029</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.2871776200000031</v>
       </c>
       <c r="K11" s="9">
@@ -1322,7 +1365,7 @@
         <v>6.4307664300000038</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.2871776200000031</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1339,8 +1382,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1352,19 +1399,19 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" si="1"/>
-        <v>27.571698369800018</v>
+        <v>55.143396739600036</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="2"/>
-        <v>13.785849184900009</v>
+        <v>27.571698369800018</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="6"/>
-        <v>137.85849184900007</v>
+        <v>24.766945689599996</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>68.929245924500037</v>
+        <v>12.383472844799998</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="4"/>
@@ -1375,7 +1422,7 @@
         <v>51.874849202000036</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7158953820000038</v>
       </c>
       <c r="K12" s="9">
@@ -1383,7 +1430,7 @@
         <v>7.0738430730000044</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.7158953820000038</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1400,8 +1447,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1413,19 +1464,19 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" si="1"/>
-        <v>35.843207880740025</v>
+        <v>71.686415761480049</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="2"/>
-        <v>17.921603940370012</v>
+        <v>35.843207880740025</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="6"/>
-        <v>179.21603940370011</v>
+        <v>29.720334827519995</v>
       </c>
       <c r="G13" s="15">
         <f t="shared" si="3"/>
-        <v>89.608019701850054</v>
+        <v>14.860167413759998</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="4"/>
@@ -1436,7 +1487,7 @@
         <v>57.062334122200042</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1874849202000046</v>
       </c>
       <c r="K13" s="9">
@@ -1444,7 +1495,7 @@
         <v>7.7812273803000052</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.1874849202000046</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1461,8 +1512,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1474,19 +1529,19 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" si="1"/>
-        <v>46.596170244962032</v>
+        <v>93.192340489924064</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="2"/>
-        <v>23.298085122481016</v>
+        <v>46.596170244962032</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="6"/>
-        <v>232.98085122481015</v>
+        <v>35.664401793023991</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="3"/>
-        <v>116.49042561240508</v>
+        <v>17.832200896511996</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="4"/>
@@ -1497,7 +1552,7 @@
         <v>62.76856753442005</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7062334122200058</v>
       </c>
       <c r="K14" s="9">
@@ -1505,7 +1560,7 @@
         <v>8.5593501183300056</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.7062334122200058</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1522,8 +1577,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1535,19 +1594,19 @@
       </c>
       <c r="D15" s="15">
         <f t="shared" si="1"/>
-        <v>60.575021318450645</v>
+        <v>121.15004263690129</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="2"/>
-        <v>30.287510659225322</v>
+        <v>60.575021318450645</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="6"/>
-        <v>302.87510659225319</v>
+        <v>42.797282151628785</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="3"/>
-        <v>151.43755329612659</v>
+        <v>21.398641075814393</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="4"/>
@@ -1558,7 +1617,7 @@
         <v>69.045424287862062</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.276856753442007</v>
       </c>
       <c r="K15" s="9">
@@ -1566,7 +1625,7 @@
         <v>9.4152851301630065</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.276856753442007</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1583,8 +1642,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1596,19 +1659,19 @@
       </c>
       <c r="D16" s="15">
         <f t="shared" si="1"/>
-        <v>78.747527713985846</v>
+        <v>157.49505542797169</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="2"/>
-        <v>39.373763856992923</v>
+        <v>78.747527713985846</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="6"/>
-        <v>393.73763856992917</v>
+        <v>51.356738581954538</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="3"/>
-        <v>196.86881928496459</v>
+        <v>25.678369290977269</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="4"/>
@@ -1619,7 +1682,7 @@
         <v>75.949966716648277</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9045424287862085</v>
       </c>
       <c r="K16" s="9">
@@ -1627,7 +1690,7 @@
         <v>10.356813643179308</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9045424287862085</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1644,8 +1707,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -1656,20 +1723,20 @@
         <v>46</v>
       </c>
       <c r="D17" s="23">
-        <f t="shared" ref="D17:D46" si="12">D16*P17</f>
+        <f t="shared" ref="D17:D46" si="13">D16*P17</f>
+        <v>204.74357205636321</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:E46" si="14">E16*P17</f>
         <v>102.3717860281816</v>
-      </c>
-      <c r="E17" s="23">
-        <f t="shared" ref="E17:E46" si="13">E16*P17</f>
-        <v>51.185893014090802</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="6"/>
-        <v>511.85893014090794</v>
+        <v>61.628086298345444</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="3"/>
-        <v>255.92946507045397</v>
+        <v>30.814043149172722</v>
       </c>
       <c r="H17" s="23">
         <f t="shared" si="4"/>
@@ -1680,7 +1747,7 @@
         <v>83.544963388313107</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5949966716648296</v>
       </c>
       <c r="K17" s="23">
@@ -1688,7 +1755,7 @@
         <v>11.39249500749724</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5949966716648296</v>
       </c>
       <c r="M17" s="21" t="s">
@@ -1705,8 +1772,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -1717,20 +1788,20 @@
         <v>49</v>
       </c>
       <c r="D18" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>266.16664367327218</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="14"/>
         <v>133.08332183663609</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" si="13"/>
-        <v>66.541660918318044</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="6"/>
-        <v>665.4166091831803</v>
+        <v>73.953703558014524</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="3"/>
-        <v>332.70830459159015</v>
+        <v>36.976851779007262</v>
       </c>
       <c r="H18" s="23">
         <f t="shared" si="4"/>
@@ -1741,7 +1812,7 @@
         <v>91.899459727144432</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.3544963388313125</v>
       </c>
       <c r="K18" s="23">
@@ -1749,7 +1820,7 @@
         <v>12.531744508246966</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.3544963388313125</v>
       </c>
       <c r="M18" s="21" t="s">
@@ -1766,8 +1837,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -1778,20 +1853,20 @@
         <v>52</v>
       </c>
       <c r="D19" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>346.01663677525386</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="14"/>
         <v>173.00831838762693</v>
-      </c>
-      <c r="E19" s="23">
-        <f t="shared" si="13"/>
-        <v>86.504159193813464</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="6"/>
-        <v>865.04159193813439</v>
+        <v>88.744444269617432</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="3"/>
-        <v>432.52079596906719</v>
+        <v>44.372222134808716</v>
       </c>
       <c r="H19" s="23">
         <f t="shared" si="4"/>
@@ -1802,7 +1877,7 @@
         <v>101.08940569985889</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.1899459727144439</v>
       </c>
       <c r="K19" s="23">
@@ -1810,7 +1885,7 @@
         <v>13.784918959071664</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.1899459727144439</v>
       </c>
       <c r="M19" s="21" t="s">
@@ -1827,8 +1902,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -1839,20 +1918,20 @@
         <v>55</v>
       </c>
       <c r="D20" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>449.82162780783005</v>
+      </c>
+      <c r="E20" s="23">
+        <f t="shared" si="14"/>
         <v>224.91081390391503</v>
-      </c>
-      <c r="E20" s="23">
-        <f t="shared" si="13"/>
-        <v>112.45540695195751</v>
       </c>
       <c r="F20" s="23">
         <f t="shared" si="6"/>
-        <v>1124.5540695195748</v>
+        <v>106.49333312354092</v>
       </c>
       <c r="G20" s="23">
         <f t="shared" si="3"/>
-        <v>562.2770347597874</v>
+        <v>53.246666561770461</v>
       </c>
       <c r="H20" s="23">
         <f t="shared" si="4"/>
@@ -1863,7 +1942,7 @@
         <v>111.19834626984479</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.108940569985888</v>
       </c>
       <c r="K20" s="23">
@@ -1871,7 +1950,7 @@
         <v>15.163410854978832</v>
       </c>
       <c r="L20" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.108940569985888</v>
       </c>
       <c r="M20" s="21" t="s">
@@ -1888,8 +1967,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -1900,20 +1983,20 @@
         <v>58</v>
       </c>
       <c r="D21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>584.76811615017914</v>
+      </c>
+      <c r="E21" s="23">
+        <f t="shared" si="14"/>
         <v>292.38405807508957</v>
-      </c>
-      <c r="E21" s="23">
-        <f t="shared" si="13"/>
-        <v>146.19202903754478</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="6"/>
-        <v>1461.9202903754474</v>
+        <v>127.7919997482491</v>
       </c>
       <c r="G21" s="23">
         <f t="shared" si="3"/>
-        <v>730.9601451877237</v>
+        <v>63.895999874124549</v>
       </c>
       <c r="H21" s="23">
         <f t="shared" si="4"/>
@@ -1924,7 +2007,7 @@
         <v>122.31818089682928</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.119834626984478</v>
       </c>
       <c r="K21" s="23">
@@ -1932,7 +2015,7 @@
         <v>16.679751940476716</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.119834626984478</v>
       </c>
       <c r="M21" s="21" t="s">
@@ -1949,32 +2032,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C22" s="22">
         <v>61</v>
       </c>
       <c r="D22" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>760.19855099523295</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="14"/>
         <v>380.09927549761647</v>
-      </c>
-      <c r="E22" s="23">
-        <f t="shared" si="13"/>
-        <v>190.04963774880824</v>
       </c>
       <c r="F22" s="23">
         <f t="shared" si="6"/>
-        <v>1900.4963774880816</v>
+        <v>153.35039969789892</v>
       </c>
       <c r="G22" s="23">
         <f t="shared" si="3"/>
-        <v>950.24818874404082</v>
+        <v>76.675199848949461</v>
       </c>
       <c r="H22" s="23">
         <f t="shared" si="4"/>
@@ -1985,7 +2072,7 @@
         <v>134.54999898651221</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.231818089682926</v>
       </c>
       <c r="K22" s="23">
@@ -1993,7 +2080,7 @@
         <v>18.347727134524391</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.231818089682926</v>
       </c>
       <c r="M22" s="21" t="s">
@@ -2010,32 +2097,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C23" s="22">
         <v>64</v>
       </c>
       <c r="D23" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>988.25811629380291</v>
+      </c>
+      <c r="E23" s="23">
+        <f t="shared" si="14"/>
         <v>494.12905814690146</v>
-      </c>
-      <c r="E23" s="23">
-        <f t="shared" si="13"/>
-        <v>247.06452907345073</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="6"/>
-        <v>2470.645290734506</v>
+        <v>184.0204796374787</v>
       </c>
       <c r="G23" s="23">
         <f t="shared" si="3"/>
-        <v>1235.322645367253</v>
+        <v>92.01023981873935</v>
       </c>
       <c r="H23" s="23">
         <f t="shared" si="4"/>
@@ -2046,7 +2137,7 @@
         <v>148.00499888516345</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.45499989865122</v>
       </c>
       <c r="K23" s="23">
@@ -2054,7 +2145,7 @@
         <v>20.182499847976832</v>
       </c>
       <c r="L23" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.45499989865122</v>
       </c>
       <c r="M23" s="21" t="s">
@@ -2071,32 +2162,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="22">
         <v>67</v>
       </c>
       <c r="D24" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>1284.7355511819437</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="14"/>
         <v>642.36777559097186</v>
-      </c>
-      <c r="E24" s="23">
-        <f t="shared" si="13"/>
-        <v>321.18388779548593</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="6"/>
-        <v>3211.8388779548582</v>
+        <v>220.82457556497442</v>
       </c>
       <c r="G24" s="23">
         <f t="shared" si="3"/>
-        <v>1605.9194389774291</v>
+        <v>110.41228778248721</v>
       </c>
       <c r="H24" s="23">
         <f t="shared" si="4"/>
@@ -2107,7 +2202,7 @@
         <v>162.8054987736798</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.800499888516343</v>
       </c>
       <c r="K24" s="23">
@@ -2115,7 +2210,7 @@
         <v>22.200749832774516</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.800499888516343</v>
       </c>
       <c r="M24" s="21" t="s">
@@ -2132,32 +2227,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="22">
         <v>70</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>1670.1562165365269</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" si="14"/>
         <v>835.07810826826346</v>
-      </c>
-      <c r="E25" s="23">
-        <f t="shared" si="13"/>
-        <v>417.53905413413173</v>
       </c>
       <c r="F25" s="23">
         <f t="shared" si="6"/>
-        <v>4175.3905413413158</v>
+        <v>264.98949067796929</v>
       </c>
       <c r="G25" s="23">
         <f t="shared" si="3"/>
-        <v>2087.6952706706579</v>
+        <v>132.49474533898464</v>
       </c>
       <c r="H25" s="23">
         <f t="shared" si="4"/>
@@ -2168,7 +2267,7 @@
         <v>179.0860486510478</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16.280549877367978</v>
       </c>
       <c r="K25" s="23">
@@ -2176,7 +2275,7 @@
         <v>24.420824816051969</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.280549877367978</v>
       </c>
       <c r="M25" s="21" t="s">
@@ -2193,32 +2292,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="22">
         <v>73</v>
       </c>
       <c r="D26" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>2171.2030814974851</v>
+      </c>
+      <c r="E26" s="23">
+        <f t="shared" si="14"/>
         <v>1085.6015407487425</v>
-      </c>
-      <c r="E26" s="23">
-        <f t="shared" si="13"/>
-        <v>542.80077037437127</v>
       </c>
       <c r="F26" s="23">
         <f t="shared" si="6"/>
-        <v>5428.0077037437104</v>
+        <v>317.98738881356314</v>
       </c>
       <c r="G26" s="23">
         <f t="shared" si="3"/>
-        <v>2714.0038518718552</v>
+        <v>158.99369440678157</v>
       </c>
       <c r="H26" s="23">
         <f t="shared" si="4"/>
@@ -2229,7 +2332,7 @@
         <v>196.9946535161526</v>
       </c>
       <c r="J26" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.908604865104778</v>
       </c>
       <c r="K26" s="23">
@@ -2237,7 +2340,7 @@
         <v>26.862907297657166</v>
       </c>
       <c r="L26" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.908604865104778</v>
       </c>
       <c r="M26" s="21" t="s">
@@ -2254,32 +2357,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="22">
         <v>76</v>
       </c>
       <c r="D27" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>2822.5640059467305</v>
+      </c>
+      <c r="E27" s="23">
+        <f t="shared" si="14"/>
         <v>1411.2820029733653</v>
-      </c>
-      <c r="E27" s="23">
-        <f t="shared" si="13"/>
-        <v>705.64100148668263</v>
       </c>
       <c r="F27" s="23">
         <f t="shared" si="6"/>
-        <v>7056.410014866824</v>
+        <v>381.58486657627577</v>
       </c>
       <c r="G27" s="23">
         <f t="shared" si="3"/>
-        <v>3528.205007433412</v>
+        <v>190.79243328813789</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="4"/>
@@ -2290,7 +2397,7 @@
         <v>216.69411886776788</v>
       </c>
       <c r="J27" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.699465351615256</v>
       </c>
       <c r="K27" s="23">
@@ -2298,7 +2405,7 @@
         <v>29.549198027422886</v>
       </c>
       <c r="L27" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.699465351615256</v>
       </c>
       <c r="M27" s="21" t="s">
@@ -2315,32 +2422,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="22">
         <v>79</v>
       </c>
       <c r="D28" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>3669.3332077307496</v>
+      </c>
+      <c r="E28" s="23">
+        <f t="shared" si="14"/>
         <v>1834.6666038653748</v>
-      </c>
-      <c r="E28" s="23">
-        <f t="shared" si="13"/>
-        <v>917.33330193268739</v>
       </c>
       <c r="F28" s="23">
         <f t="shared" si="6"/>
-        <v>9173.3330193268721</v>
+        <v>457.90183989153093</v>
       </c>
       <c r="G28" s="23">
         <f t="shared" si="3"/>
-        <v>4586.666509663436</v>
+        <v>228.95091994576546</v>
       </c>
       <c r="H28" s="23">
         <f t="shared" si="4"/>
@@ -2351,7 +2462,7 @@
         <v>238.36353075454468</v>
       </c>
       <c r="J28" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21.669411886776782</v>
       </c>
       <c r="K28" s="23">
@@ -2359,7 +2470,7 @@
         <v>32.504117830165178</v>
       </c>
       <c r="L28" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.669411886776782</v>
       </c>
       <c r="M28" s="21" t="s">
@@ -2376,32 +2487,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="22">
         <v>82</v>
       </c>
       <c r="D29" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>4770.133170049975</v>
+      </c>
+      <c r="E29" s="23">
+        <f t="shared" si="14"/>
         <v>2385.0665850249875</v>
-      </c>
-      <c r="E29" s="23">
-        <f t="shared" si="13"/>
-        <v>1192.5332925124937</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" si="6"/>
-        <v>11925.332925124934</v>
+        <v>549.48220786983711</v>
       </c>
       <c r="G29" s="23">
         <f t="shared" si="3"/>
-        <v>5962.6664625624671</v>
+        <v>274.74110393491856</v>
       </c>
       <c r="H29" s="23">
         <f t="shared" si="4"/>
@@ -2412,7 +2527,7 @@
         <v>262.19988382999918</v>
       </c>
       <c r="J29" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23.836353075454461</v>
       </c>
       <c r="K29" s="23">
@@ -2420,7 +2535,7 @@
         <v>35.754529613181703</v>
       </c>
       <c r="L29" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.836353075454461</v>
       </c>
       <c r="M29" s="21" t="s">
@@ -2437,32 +2552,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="22">
         <v>85</v>
       </c>
       <c r="D30" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>6201.1731210649677</v>
+      </c>
+      <c r="E30" s="23">
+        <f t="shared" si="14"/>
         <v>3100.5865605324839</v>
-      </c>
-      <c r="E30" s="23">
-        <f t="shared" si="13"/>
-        <v>1550.2932802662419</v>
       </c>
       <c r="F30" s="23">
         <f t="shared" si="6"/>
-        <v>15502.932802662415</v>
+        <v>659.37864944380453</v>
       </c>
       <c r="G30" s="23">
         <f t="shared" si="3"/>
-        <v>7751.4664013312076</v>
+        <v>329.68932472190227</v>
       </c>
       <c r="H30" s="23">
         <f t="shared" si="4"/>
@@ -2473,7 +2592,7 @@
         <v>288.41987221299911</v>
       </c>
       <c r="J30" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26.219988382999908</v>
       </c>
       <c r="K30" s="23">
@@ -2481,7 +2600,7 @@
         <v>39.329982574499873</v>
       </c>
       <c r="L30" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26.219988382999908</v>
       </c>
       <c r="M30" s="21" t="s">
@@ -2498,32 +2617,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="22">
         <v>88</v>
       </c>
       <c r="D31" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>8061.5250573844587</v>
+      </c>
+      <c r="E31" s="23">
+        <f t="shared" si="14"/>
         <v>4030.7625286922294</v>
-      </c>
-      <c r="E31" s="23">
-        <f t="shared" si="13"/>
-        <v>2015.3812643461147</v>
       </c>
       <c r="F31" s="23">
         <f t="shared" si="6"/>
-        <v>20153.81264346114</v>
+        <v>791.25437933256546</v>
       </c>
       <c r="G31" s="23">
         <f t="shared" si="3"/>
-        <v>10076.90632173057</v>
+        <v>395.62718966628273</v>
       </c>
       <c r="H31" s="23">
         <f t="shared" si="4"/>
@@ -2534,7 +2657,7 @@
         <v>317.26185943429903</v>
       </c>
       <c r="J31" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.841987221299902</v>
       </c>
       <c r="K31" s="23">
@@ -2542,7 +2665,7 @@
         <v>43.262980831949861</v>
       </c>
       <c r="L31" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28.841987221299902</v>
       </c>
       <c r="M31" s="21" t="s">
@@ -2559,32 +2682,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="20">
         <v>91</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>10479.982574599797</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="14"/>
         <v>5239.9912872998984</v>
-      </c>
-      <c r="E32" s="24">
-        <f t="shared" si="13"/>
-        <v>2619.9956436499492</v>
       </c>
       <c r="F32" s="24">
         <f t="shared" si="6"/>
-        <v>26199.956436499484</v>
+        <v>949.50525519907853</v>
       </c>
       <c r="G32" s="24">
         <f t="shared" si="3"/>
-        <v>13099.978218249742</v>
+        <v>474.75262759953927</v>
       </c>
       <c r="H32" s="24">
         <f t="shared" si="4"/>
@@ -2595,7 +2722,7 @@
         <v>348.98804537772895</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31.726185943429897</v>
       </c>
       <c r="K32" s="24">
@@ -2603,7 +2730,7 @@
         <v>47.589278915144853</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31.726185943429897</v>
       </c>
       <c r="M32" s="20" t="s">
@@ -2620,32 +2747,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="20">
         <v>94</v>
       </c>
       <c r="D33" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>13623.977346979736</v>
+      </c>
+      <c r="E33" s="24">
+        <f t="shared" si="14"/>
         <v>6811.9886734898682</v>
-      </c>
-      <c r="E33" s="24">
-        <f t="shared" si="13"/>
-        <v>3405.9943367449341</v>
       </c>
       <c r="F33" s="24">
         <f t="shared" si="6"/>
-        <v>34059.943367449334</v>
+        <v>1139.4063062388941</v>
       </c>
       <c r="G33" s="24">
         <f t="shared" si="3"/>
-        <v>17029.971683724667</v>
+        <v>569.70315311944705</v>
       </c>
       <c r="H33" s="24">
         <f t="shared" si="4"/>
@@ -2656,7 +2787,7 @@
         <v>383.8868499155019</v>
       </c>
       <c r="J33" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34.898804537772889</v>
       </c>
       <c r="K33" s="24">
@@ -2664,7 +2795,7 @@
         <v>52.348206806659341</v>
       </c>
       <c r="L33" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.898804537772889</v>
       </c>
       <c r="M33" s="20" t="s">
@@ -2681,32 +2812,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="20">
         <v>97</v>
       </c>
       <c r="D34" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>17711.170551073657</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="14"/>
         <v>8855.5852755368287</v>
-      </c>
-      <c r="E34" s="24">
-        <f t="shared" si="13"/>
-        <v>4427.7926377684144</v>
       </c>
       <c r="F34" s="24">
         <f t="shared" si="6"/>
-        <v>44277.926377684133</v>
+        <v>1367.287567486673</v>
       </c>
       <c r="G34" s="24">
         <f t="shared" si="3"/>
-        <v>22138.963188842066</v>
+        <v>683.64378374333648</v>
       </c>
       <c r="H34" s="24">
         <f t="shared" si="4"/>
@@ -2717,7 +2852,7 @@
         <v>422.27553490705213</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38.388684991550178</v>
       </c>
       <c r="K34" s="24">
@@ -2725,7 +2860,7 @@
         <v>57.583027487325282</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.388684991550178</v>
       </c>
       <c r="M34" s="20" t="s">
@@ -2742,32 +2877,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="20">
         <v>100</v>
       </c>
       <c r="D35" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>23024.521716395757</v>
+      </c>
+      <c r="E35" s="24">
+        <f t="shared" si="14"/>
         <v>11512.260858197878</v>
-      </c>
-      <c r="E35" s="24">
-        <f t="shared" si="13"/>
-        <v>5756.1304290989392</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="6"/>
-        <v>57561.304290989377</v>
+        <v>1640.7450809840075</v>
       </c>
       <c r="G35" s="24">
         <f t="shared" si="3"/>
-        <v>28780.652145494689</v>
+        <v>820.37254049200374</v>
       </c>
       <c r="H35" s="24">
         <f t="shared" si="4"/>
@@ -2778,7 +2917,7 @@
         <v>464.50308839775738</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>42.227553490705198</v>
       </c>
       <c r="K35" s="24">
@@ -2786,7 +2925,7 @@
         <v>63.341330236057814</v>
       </c>
       <c r="L35" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.227553490705198</v>
       </c>
       <c r="M35" s="20" t="s">
@@ -2803,32 +2942,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="20">
         <v>103</v>
       </c>
       <c r="D36" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>29931.878231314484</v>
+      </c>
+      <c r="E36" s="24">
+        <f t="shared" si="14"/>
         <v>14965.939115657242</v>
-      </c>
-      <c r="E36" s="24">
-        <f t="shared" si="13"/>
-        <v>7482.969557828621</v>
       </c>
       <c r="F36" s="24">
         <f t="shared" si="6"/>
-        <v>74829.695578286191</v>
+        <v>1968.8940971808088</v>
       </c>
       <c r="G36" s="24">
         <f t="shared" si="3"/>
-        <v>37414.847789143096</v>
+        <v>984.44704859040439</v>
       </c>
       <c r="H36" s="24">
         <f t="shared" si="4"/>
@@ -2839,7 +2982,7 @@
         <v>510.95339723753318</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46.450308839775722</v>
       </c>
       <c r="K36" s="24">
@@ -2847,7 +2990,7 @@
         <v>69.675463259663601</v>
       </c>
       <c r="L36" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.450308839775722</v>
       </c>
       <c r="M36" s="20" t="s">
@@ -2864,32 +3007,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="20">
         <v>106</v>
       </c>
       <c r="D37" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>38911.441700708827</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" si="14"/>
         <v>19455.720850354413</v>
-      </c>
-      <c r="E37" s="24">
-        <f t="shared" si="13"/>
-        <v>9727.8604251772067</v>
       </c>
       <c r="F37" s="24">
         <f t="shared" si="6"/>
-        <v>97278.604251772049</v>
+        <v>2362.6729166169703</v>
       </c>
       <c r="G37" s="24">
         <f t="shared" si="3"/>
-        <v>48639.302125886024</v>
+        <v>1181.3364583084851</v>
       </c>
       <c r="H37" s="24">
         <f t="shared" si="4"/>
@@ -2900,7 +3047,7 @@
         <v>562.04873696128652</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>51.095339723753298</v>
       </c>
       <c r="K37" s="24">
@@ -2908,7 +3055,7 @@
         <v>76.643009585629969</v>
       </c>
       <c r="L37" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51.095339723753298</v>
       </c>
       <c r="M37" s="20" t="s">
@@ -2925,32 +3072,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="20">
         <v>109</v>
       </c>
       <c r="D38" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>50584.87421092148</v>
+      </c>
+      <c r="E38" s="24">
+        <f t="shared" si="14"/>
         <v>25292.43710546074</v>
-      </c>
-      <c r="E38" s="24">
-        <f t="shared" si="13"/>
-        <v>12646.21855273037</v>
       </c>
       <c r="F38" s="24">
         <f t="shared" si="6"/>
-        <v>126462.18552730366</v>
+        <v>2835.2074999403644</v>
       </c>
       <c r="G38" s="24">
         <f t="shared" si="3"/>
-        <v>63231.092763651832</v>
+        <v>1417.6037499701822</v>
       </c>
       <c r="H38" s="24">
         <f t="shared" si="4"/>
@@ -2961,7 +3112,7 @@
         <v>618.25361065741527</v>
       </c>
       <c r="J38" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.204873696128629</v>
       </c>
       <c r="K38" s="24">
@@ -2969,7 +3120,7 @@
         <v>84.307310544192973</v>
       </c>
       <c r="L38" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56.204873696128629</v>
       </c>
       <c r="M38" s="20" t="s">
@@ -2986,32 +3137,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="20">
         <v>112</v>
       </c>
       <c r="D39" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>65760.336474197931</v>
+      </c>
+      <c r="E39" s="24">
+        <f t="shared" si="14"/>
         <v>32880.168237098966</v>
-      </c>
-      <c r="E39" s="24">
-        <f t="shared" si="13"/>
-        <v>16440.084118549483</v>
       </c>
       <c r="F39" s="24">
         <f t="shared" si="6"/>
-        <v>164400.84118549476</v>
+        <v>3402.2489999284371</v>
       </c>
       <c r="G39" s="24">
         <f t="shared" si="3"/>
-        <v>82200.420592747381</v>
+        <v>1701.1244999642186</v>
       </c>
       <c r="H39" s="24">
         <f t="shared" si="4"/>
@@ -3022,7 +3177,7 @@
         <v>680.07897172315688</v>
       </c>
       <c r="J39" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>61.825361065741497</v>
       </c>
       <c r="K39" s="24">
@@ -3030,7 +3185,7 @@
         <v>92.738041598612284</v>
       </c>
       <c r="L39" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61.825361065741497</v>
       </c>
       <c r="M39" s="20" t="s">
@@ -3047,32 +3202,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="20">
         <v>115</v>
       </c>
       <c r="D40" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>85488.437416457309</v>
+      </c>
+      <c r="E40" s="24">
+        <f t="shared" si="14"/>
         <v>42744.218708228655</v>
-      </c>
-      <c r="E40" s="24">
-        <f t="shared" si="13"/>
-        <v>21372.109354114327</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="6"/>
-        <v>213721.0935411432</v>
+        <v>4082.6987999141243</v>
       </c>
       <c r="G40" s="24">
         <f t="shared" si="3"/>
-        <v>106860.5467705716</v>
+        <v>2041.3493999570621</v>
       </c>
       <c r="H40" s="24">
         <f t="shared" si="4"/>
@@ -3083,7 +3242,7 @@
         <v>748.08686889547266</v>
       </c>
       <c r="J40" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>68.007897172315651</v>
       </c>
       <c r="K40" s="24">
@@ -3091,7 +3250,7 @@
         <v>102.01184575847353</v>
       </c>
       <c r="L40" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>68.007897172315651</v>
       </c>
       <c r="M40" s="20" t="s">
@@ -3108,32 +3267,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="20">
         <v>118</v>
       </c>
       <c r="D41" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>111134.9686413945</v>
+      </c>
+      <c r="E41" s="24">
+        <f t="shared" si="14"/>
         <v>55567.484320697251</v>
-      </c>
-      <c r="E41" s="24">
-        <f t="shared" si="13"/>
-        <v>27783.742160348625</v>
       </c>
       <c r="F41" s="24">
         <f t="shared" si="6"/>
-        <v>277837.42160348617</v>
+        <v>4899.2385598969486</v>
       </c>
       <c r="G41" s="24">
         <f t="shared" si="3"/>
-        <v>138918.71080174309</v>
+        <v>2449.6192799484743</v>
       </c>
       <c r="H41" s="24">
         <f t="shared" si="4"/>
@@ -3144,7 +3307,7 @@
         <v>822.89555578501995</v>
       </c>
       <c r="J41" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>74.808686889547218</v>
       </c>
       <c r="K41" s="24">
@@ -3152,7 +3315,7 @@
         <v>112.21303033432089</v>
       </c>
       <c r="L41" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>74.808686889547218</v>
       </c>
       <c r="M41" s="20" t="s">
@@ -3169,32 +3332,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="20">
         <v>121</v>
       </c>
       <c r="D42" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>144475.45923381287</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" si="14"/>
         <v>72237.729616906436</v>
-      </c>
-      <c r="E42" s="24">
-        <f t="shared" si="13"/>
-        <v>36118.864808453218</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="6"/>
-        <v>361188.64808453206</v>
+        <v>5879.0862718763383</v>
       </c>
       <c r="G42" s="24">
         <f t="shared" si="3"/>
-        <v>180594.32404226603</v>
+        <v>2939.5431359381691</v>
       </c>
       <c r="H42" s="24">
         <f t="shared" si="4"/>
@@ -3205,7 +3372,7 @@
         <v>905.18511136352197</v>
       </c>
       <c r="J42" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82.289555578501947</v>
       </c>
       <c r="K42" s="24">
@@ -3213,7 +3380,7 @@
         <v>123.43433336775298</v>
       </c>
       <c r="L42" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82.289555578501947</v>
       </c>
       <c r="M42" s="20" t="s">
@@ -3230,32 +3397,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="20">
         <v>124</v>
       </c>
       <c r="D43" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>187818.09700395673</v>
+      </c>
+      <c r="E43" s="24">
+        <f t="shared" si="14"/>
         <v>93909.048501978366</v>
-      </c>
-      <c r="E43" s="24">
-        <f t="shared" si="13"/>
-        <v>46954.524250989183</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" si="6"/>
-        <v>469545.24250989169</v>
+        <v>7054.9035262516054</v>
       </c>
       <c r="G43" s="24">
         <f t="shared" si="3"/>
-        <v>234772.62125494584</v>
+        <v>3527.4517631258027</v>
       </c>
       <c r="H43" s="24">
         <f t="shared" si="4"/>
@@ -3266,7 +3437,7 @@
         <v>995.7036224998742</v>
       </c>
       <c r="J43" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90.518511136352146</v>
       </c>
       <c r="K43" s="24">
@@ -3274,7 +3445,7 @@
         <v>135.77776670452829</v>
       </c>
       <c r="L43" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>90.518511136352146</v>
       </c>
       <c r="M43" s="20" t="s">
@@ -3291,32 +3462,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="20">
         <v>127</v>
       </c>
       <c r="D44" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>244163.52610514377</v>
+      </c>
+      <c r="E44" s="24">
+        <f t="shared" si="14"/>
         <v>122081.76305257189</v>
-      </c>
-      <c r="E44" s="24">
-        <f t="shared" si="13"/>
-        <v>61040.881526285943</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="6"/>
-        <v>610408.81526285922</v>
+        <v>8465.8842315019265</v>
       </c>
       <c r="G44" s="24">
         <f t="shared" si="3"/>
-        <v>305204.40763142961</v>
+        <v>4232.9421157509632</v>
       </c>
       <c r="H44" s="24">
         <f t="shared" si="4"/>
@@ -3327,7 +3502,7 @@
         <v>1095.2739847498617</v>
       </c>
       <c r="J44" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99.570362249987369</v>
       </c>
       <c r="K44" s="24">
@@ -3335,7 +3510,7 @@
         <v>149.35554337498112</v>
       </c>
       <c r="L44" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99.570362249987369</v>
       </c>
       <c r="M44" s="20" t="s">
@@ -3352,32 +3527,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="20">
         <v>130</v>
       </c>
       <c r="D45" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>317412.58393668692</v>
+      </c>
+      <c r="E45" s="24">
+        <f t="shared" si="14"/>
         <v>158706.29196834346</v>
-      </c>
-      <c r="E45" s="24">
-        <f t="shared" si="13"/>
-        <v>79353.14598417173</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="6"/>
-        <v>793531.45984171703</v>
+        <v>10159.061077802311</v>
       </c>
       <c r="G45" s="24">
         <f t="shared" si="3"/>
-        <v>396765.72992085852</v>
+        <v>5079.5305389011555</v>
       </c>
       <c r="H45" s="24">
         <f t="shared" si="4"/>
@@ -3388,7 +3567,7 @@
         <v>1204.801383224848</v>
       </c>
       <c r="J45" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>109.52739847498611</v>
       </c>
       <c r="K45" s="24">
@@ -3396,7 +3575,7 @@
         <v>164.29109771247926</v>
       </c>
       <c r="L45" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109.52739847498611</v>
       </c>
       <c r="M45" s="20" t="s">
@@ -3413,32 +3592,36 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="20">
         <v>133</v>
       </c>
       <c r="D46" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>412636.35911769303</v>
+      </c>
+      <c r="E46" s="24">
+        <f t="shared" si="14"/>
         <v>206318.17955884652</v>
-      </c>
-      <c r="E46" s="24">
-        <f t="shared" si="13"/>
-        <v>103159.08977942326</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="6"/>
-        <v>1031590.8977942322</v>
+        <v>12190.873293362773</v>
       </c>
       <c r="G46" s="24">
-        <f>G45*P46</f>
-        <v>515795.44889711612</v>
+        <f t="shared" si="3"/>
+        <v>6095.4366466813863</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" si="4"/>
@@ -3449,7 +3632,7 @@
         <v>1325.2815215473329</v>
       </c>
       <c r="J46" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>120.48013832248473</v>
       </c>
       <c r="K46" s="24">
@@ -3457,7 +3640,7 @@
         <v>180.72020748372719</v>
       </c>
       <c r="L46" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>120.48013832248473</v>
       </c>
       <c r="M46" s="20" t="s">
@@ -3474,8 +3657,12 @@
         <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="10"/>
@@ -3490,7 +3677,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -799,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="13">
         <v>4</v>
@@ -828,14 +828,11 @@
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
       <c r="O2" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="P2" s="1">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R2" s="1">
         <v>1.2</v>
@@ -853,11 +850,11 @@
       </c>
       <c r="D3" s="13">
         <f>D2*P3</f>
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="E3" s="13">
         <f>E2*P3</f>
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="F3" s="13">
         <f>F2*R3</f>
@@ -890,16 +887,13 @@
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:P5" si="0">O2</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R3" s="1">
         <f>R2</f>
@@ -918,11 +912,11 @@
       </c>
       <c r="D4" s="13">
         <f>D3*P4</f>
-        <v>6.7600000000000007</v>
+        <v>3.125</v>
       </c>
       <c r="E4" s="13">
         <f>E3*P4</f>
-        <v>3.3800000000000003</v>
+        <v>1.5625</v>
       </c>
       <c r="F4" s="13">
         <f>F3*R4</f>
@@ -955,16 +949,13 @@
       <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R4" s="1">
         <f>R3</f>
@@ -983,11 +974,11 @@
       </c>
       <c r="D5" s="13">
         <f t="shared" ref="D5:D16" si="1">D4*P5</f>
-        <v>8.788000000000002</v>
+        <v>3.90625</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" ref="E5:E16" si="2">E4*P5</f>
-        <v>4.394000000000001</v>
+        <v>1.953125</v>
       </c>
       <c r="F5" s="13">
         <f>F4*R5</f>
@@ -1020,16 +1011,13 @@
       <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R5" s="1">
         <f>R4</f>
@@ -1048,11 +1036,11 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" si="1"/>
-        <v>11.424400000000004</v>
+        <v>4.8828125</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>5.7122000000000019</v>
+        <v>2.44140625</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" ref="F6:F31" si="6">F5*R6</f>
@@ -1085,16 +1073,13 @@
       <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6:O61" si="8">O5</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ref="P6:P61" si="9">P5</f>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ref="R6:R61" si="10">R5</f>
@@ -1113,11 +1098,11 @@
       </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>14.851720000000006</v>
+        <v>5.859375</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="2"/>
-        <v>7.4258600000000028</v>
+        <v>2.9296875</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="6"/>
@@ -1150,20 +1135,12 @@
       <c r="M7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
       <c r="O7" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>SUM(N2:N76)</f>
-        <v>60</v>
+        <v>1.2</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="10"/>
@@ -1182,11 +1159,11 @@
       </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>19.307236000000007</v>
+        <v>7.03125</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="2"/>
-        <v>9.6536180000000034</v>
+        <v>3.515625</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="6"/>
@@ -1219,16 +1196,13 @@
       <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
       <c r="O8" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="10"/>
@@ -1247,11 +1221,11 @@
       </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>25.099406800000011</v>
+        <v>8.4375</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="2"/>
-        <v>12.549703400000006</v>
+        <v>4.21875</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="6"/>
@@ -1284,16 +1258,13 @@
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
       <c r="O9" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="10"/>
@@ -1312,11 +1283,11 @@
       </c>
       <c r="D10" s="13">
         <f t="shared" si="1"/>
-        <v>32.629228840000017</v>
+        <v>10.125</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" si="2"/>
-        <v>16.314614420000009</v>
+        <v>5.0625</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="6"/>
@@ -1349,16 +1320,13 @@
       <c r="M10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
       <c r="O10" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="10"/>
@@ -1377,11 +1345,11 @@
       </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>42.417997492000026</v>
+        <v>12.15</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="2"/>
-        <v>21.208998746000013</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="6"/>
@@ -1414,16 +1382,13 @@
       <c r="M11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
       <c r="O11" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="10"/>
@@ -1442,11 +1407,11 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" si="1"/>
-        <v>55.143396739600036</v>
+        <v>14.58</v>
       </c>
       <c r="E12" s="20">
         <f t="shared" si="2"/>
-        <v>27.571698369800018</v>
+        <v>7.29</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="6"/>
@@ -1479,16 +1444,13 @@
       <c r="M12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
       <c r="O12" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="10"/>
@@ -1507,11 +1469,11 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" si="1"/>
-        <v>71.686415761480049</v>
+        <v>17.495999999999999</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="2"/>
-        <v>35.843207880740025</v>
+        <v>8.7479999999999993</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="6"/>
@@ -1544,16 +1506,13 @@
       <c r="M13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
       <c r="O13" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="10"/>
@@ -1572,11 +1531,11 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" si="1"/>
-        <v>93.192340489924064</v>
+        <v>20.995199999999997</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="2"/>
-        <v>46.596170244962032</v>
+        <v>10.497599999999998</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" si="6"/>
@@ -1609,16 +1568,13 @@
       <c r="M14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
       <c r="O14" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="10"/>
@@ -1637,11 +1593,11 @@
       </c>
       <c r="D15" s="20">
         <f t="shared" si="1"/>
-        <v>121.15004263690129</v>
+        <v>25.194239999999997</v>
       </c>
       <c r="E15" s="20">
         <f t="shared" si="2"/>
-        <v>60.575021318450645</v>
+        <v>12.597119999999999</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="6"/>
@@ -1674,16 +1630,13 @@
       <c r="M15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
       <c r="O15" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="10"/>
@@ -1702,11 +1655,11 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" si="1"/>
-        <v>157.49505542797169</v>
+        <v>30.233087999999995</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="2"/>
-        <v>78.747527713985846</v>
+        <v>15.116543999999998</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="6"/>
@@ -1739,16 +1692,13 @@
       <c r="M16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
       <c r="O16" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="10"/>
@@ -1767,11 +1717,11 @@
       </c>
       <c r="D17" s="20">
         <f t="shared" ref="D17:D31" si="13">D16*P17</f>
-        <v>204.74357205636321</v>
+        <v>36.279705599999993</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" ref="E17:E31" si="14">E16*P17</f>
-        <v>102.3717860281816</v>
+        <v>18.139852799999996</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="6"/>
@@ -1804,16 +1754,13 @@
       <c r="M17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
       <c r="O17" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="10"/>
@@ -1832,11 +1779,11 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="13"/>
-        <v>266.16664367327218</v>
+        <v>43.535646719999988</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="14"/>
-        <v>133.08332183663609</v>
+        <v>21.767823359999994</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="6"/>
@@ -1869,16 +1816,13 @@
       <c r="M18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
       <c r="O18" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="10"/>
@@ -1897,11 +1841,11 @@
       </c>
       <c r="D19" s="20">
         <f t="shared" si="13"/>
-        <v>346.01663677525386</v>
+        <v>52.242776063999983</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="14"/>
-        <v>173.00831838762693</v>
+        <v>26.121388031999992</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" si="6"/>
@@ -1934,16 +1878,13 @@
       <c r="M19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
       <c r="O19" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="10"/>
@@ -1962,11 +1903,11 @@
       </c>
       <c r="D20" s="20">
         <f t="shared" si="13"/>
-        <v>449.82162780783005</v>
+        <v>62.691331276799978</v>
       </c>
       <c r="E20" s="20">
         <f t="shared" si="14"/>
-        <v>224.91081390391503</v>
+        <v>31.345665638399989</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" si="6"/>
@@ -1999,16 +1940,13 @@
       <c r="M20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
       <c r="O20" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="10"/>
@@ -2027,11 +1965,11 @@
       </c>
       <c r="D21" s="20">
         <f t="shared" si="13"/>
-        <v>584.76811615017914</v>
+        <v>75.229597532159971</v>
       </c>
       <c r="E21" s="20">
         <f t="shared" si="14"/>
-        <v>292.38405807508957</v>
+        <v>37.614798766079986</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" si="6"/>
@@ -2064,16 +2002,13 @@
       <c r="M21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
       <c r="O21" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="10"/>
@@ -2092,11 +2027,11 @@
       </c>
       <c r="D22" s="21">
         <f t="shared" si="13"/>
-        <v>760.19855099523295</v>
+        <v>90.275517038591957</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="14"/>
-        <v>380.09927549761647</v>
+        <v>45.137758519295978</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" si="6"/>
@@ -2129,16 +2064,13 @@
       <c r="M22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
       <c r="O22" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="10"/>
@@ -2157,11 +2089,11 @@
       </c>
       <c r="D23" s="21">
         <f t="shared" si="13"/>
-        <v>988.25811629380291</v>
+        <v>108.33062044631035</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="14"/>
-        <v>494.12905814690146</v>
+        <v>54.165310223155174</v>
       </c>
       <c r="F23" s="21">
         <f t="shared" si="6"/>
@@ -2194,16 +2126,13 @@
       <c r="M23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
       <c r="O23" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="10"/>
@@ -2222,11 +2151,11 @@
       </c>
       <c r="D24" s="21">
         <f t="shared" si="13"/>
-        <v>1284.7355511819437</v>
+        <v>129.99674453557242</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="14"/>
-        <v>642.36777559097186</v>
+        <v>64.998372267786209</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="6"/>
@@ -2259,16 +2188,13 @@
       <c r="M24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
       <c r="O24" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="10"/>
@@ -2287,11 +2213,11 @@
       </c>
       <c r="D25" s="21">
         <f t="shared" si="13"/>
-        <v>1670.1562165365269</v>
+        <v>155.99609344268688</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="14"/>
-        <v>835.07810826826346</v>
+        <v>77.998046721343442</v>
       </c>
       <c r="F25" s="21">
         <f t="shared" si="6"/>
@@ -2324,16 +2250,13 @@
       <c r="M25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
       <c r="O25" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="10"/>
@@ -2352,11 +2275,11 @@
       </c>
       <c r="D26" s="21">
         <f t="shared" si="13"/>
-        <v>2171.2030814974851</v>
+        <v>187.19531213122426</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="14"/>
-        <v>1085.6015407487425</v>
+        <v>93.597656065612128</v>
       </c>
       <c r="F26" s="21">
         <f t="shared" si="6"/>
@@ -2389,16 +2312,13 @@
       <c r="M26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
       <c r="O26" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="10"/>
@@ -2417,11 +2337,11 @@
       </c>
       <c r="D27" s="21">
         <f t="shared" si="13"/>
-        <v>2822.5640059467305</v>
+        <v>224.6343745574691</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="14"/>
-        <v>1411.2820029733653</v>
+        <v>112.31718727873455</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="6"/>
@@ -2454,16 +2374,13 @@
       <c r="M27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
       <c r="O27" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="10"/>
@@ -2482,11 +2399,11 @@
       </c>
       <c r="D28" s="21">
         <f t="shared" si="13"/>
-        <v>3669.3332077307496</v>
+        <v>269.5612494689629</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="14"/>
-        <v>1834.6666038653748</v>
+        <v>134.78062473448145</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="6"/>
@@ -2519,16 +2436,13 @@
       <c r="M28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
       <c r="O28" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="10"/>
@@ -2547,11 +2461,11 @@
       </c>
       <c r="D29" s="21">
         <f t="shared" si="13"/>
-        <v>4770.133170049975</v>
+        <v>323.47349936275549</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="14"/>
-        <v>2385.0665850249875</v>
+        <v>161.73674968137774</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="6"/>
@@ -2584,16 +2498,13 @@
       <c r="M29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
       <c r="O29" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" si="10"/>
@@ -2612,11 +2523,11 @@
       </c>
       <c r="D30" s="21">
         <f t="shared" si="13"/>
-        <v>6201.1731210649677</v>
+        <v>388.16819923530659</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="14"/>
-        <v>3100.5865605324839</v>
+        <v>194.08409961765329</v>
       </c>
       <c r="F30" s="21">
         <f t="shared" si="6"/>
@@ -2649,16 +2560,13 @@
       <c r="M30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
       <c r="O30" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" si="10"/>
@@ -2677,11 +2585,11 @@
       </c>
       <c r="D31" s="21">
         <f t="shared" si="13"/>
-        <v>8061.5250573844587</v>
+        <v>465.80183908236791</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="14"/>
-        <v>4030.7625286922294</v>
+        <v>232.90091954118395</v>
       </c>
       <c r="F31" s="21">
         <f t="shared" si="6"/>
@@ -2714,16 +2622,13 @@
       <c r="M31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
       <c r="O31" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="10"/>
@@ -2742,19 +2647,19 @@
       </c>
       <c r="D32" s="14">
         <f t="shared" ref="D32:D41" si="15">D31*P32</f>
-        <v>11286.135080338241</v>
+        <v>596.22635402543096</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" ref="E32:E41" si="16">E31*P32</f>
-        <v>5643.0675401691205</v>
+        <v>298.11317701271548</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" ref="F32:F41" si="17">F31*R32</f>
-        <v>1186.8815689988483</v>
+        <v>870.37981726582211</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" ref="G32:G41" si="18">G31*R32</f>
-        <v>593.44078449942413</v>
+        <v>435.18990863291106</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" ref="H32:H41" si="19">H31*O32</f>
@@ -2779,17 +2684,14 @@
       <c r="M32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
       <c r="O32" s="1">
         <v>1.3</v>
       </c>
       <c r="P32" s="1">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R32" s="1">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2804,19 +2706,19 @@
       </c>
       <c r="D33" s="14">
         <f t="shared" si="15"/>
-        <v>15800.589112473537</v>
+        <v>763.16973315255166</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="16"/>
-        <v>7900.2945562367686</v>
+        <v>381.58486657627583</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="17"/>
-        <v>1780.3223534982724</v>
+        <v>1044.4557807189865</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="18"/>
-        <v>890.16117674913619</v>
+        <v>522.22789035949324</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="19"/>
@@ -2841,19 +2743,16 @@
       <c r="M33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
       <c r="O33" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P33" s="1">
-        <v>1.4</v>
+        <f>P32</f>
+        <v>1.28</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2868,19 +2767,19 @@
       </c>
       <c r="D34" s="14">
         <f t="shared" si="15"/>
-        <v>22120.824757462949</v>
+        <v>976.85725843526609</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" si="16"/>
-        <v>11060.412378731475</v>
+        <v>488.42862921763304</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="17"/>
-        <v>2670.4835302474085</v>
+        <v>1253.3469368627837</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="18"/>
-        <v>1335.2417651237042</v>
+        <v>626.67346843139183</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="19"/>
@@ -2905,19 +2804,17 @@
       <c r="M34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N34" s="1">
-        <v>1</v>
-      </c>
       <c r="O34" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P34" s="1">
-        <v>1.4</v>
+        <f>P33</f>
+        <v>1.28</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2932,19 +2829,19 @@
       </c>
       <c r="D35" s="14">
         <f t="shared" si="15"/>
-        <v>30969.154660448126</v>
+        <v>1250.3772907971406</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" si="16"/>
-        <v>15484.577330224063</v>
+        <v>625.18864539857032</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="17"/>
-        <v>4005.7252953711127</v>
+        <v>1504.0163242353403</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="18"/>
-        <v>2002.8626476855563</v>
+        <v>752.00816211767017</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="19"/>
@@ -2969,20 +2866,17 @@
       <c r="M35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
       <c r="O35" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2997,19 +2891,19 @@
       </c>
       <c r="D36" s="14">
         <f t="shared" si="15"/>
-        <v>43356.816524627371</v>
+        <v>1600.48293222034</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" si="16"/>
-        <v>21678.408262313686</v>
+        <v>800.24146611016999</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="17"/>
-        <v>6008.5879430566692</v>
+        <v>1804.8195890824084</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" si="18"/>
-        <v>3004.2939715283346</v>
+        <v>902.40979454120418</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="19"/>
@@ -3034,20 +2928,17 @@
       <c r="M36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
       <c r="O36" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3062,19 +2953,19 @@
       </c>
       <c r="D37" s="14">
         <f t="shared" si="15"/>
-        <v>60699.543134478314</v>
+        <v>2048.6181532420351</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" si="16"/>
-        <v>30349.771567239157</v>
+        <v>1024.3090766210175</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="17"/>
-        <v>9012.881914585003</v>
+        <v>2165.7835068988898</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="18"/>
-        <v>4506.4409572925015</v>
+        <v>1082.8917534494449</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="19"/>
@@ -3099,20 +2990,17 @@
       <c r="M37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
       <c r="O37" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3127,19 +3015,19 @@
       </c>
       <c r="D38" s="14">
         <f t="shared" si="15"/>
-        <v>84979.360388269633</v>
+        <v>2622.2312361498048</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="16"/>
-        <v>42489.680194134817</v>
+        <v>1311.1156180749024</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="17"/>
-        <v>13519.322871877504</v>
+        <v>2598.9402082786678</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="18"/>
-        <v>6759.6614359387522</v>
+        <v>1299.4701041393339</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="19"/>
@@ -3164,20 +3052,17 @@
       <c r="M38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
       <c r="O38" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3192,19 +3077,19 @@
       </c>
       <c r="D39" s="14">
         <f t="shared" si="15"/>
-        <v>118971.10454357747</v>
+        <v>3356.4559822717501</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="16"/>
-        <v>59485.552271788736</v>
+        <v>1678.2279911358751</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="17"/>
-        <v>20278.984307816256</v>
+        <v>3118.7282499344014</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="18"/>
-        <v>10139.492153908128</v>
+        <v>1559.3641249672007</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="19"/>
@@ -3229,20 +3114,17 @@
       <c r="M39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
       <c r="O39" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3257,19 +3139,19 @@
       </c>
       <c r="D40" s="14">
         <f t="shared" si="15"/>
-        <v>166559.54636100846</v>
+        <v>4296.2636573078398</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" si="16"/>
-        <v>83279.773180504228</v>
+        <v>2148.1318286539199</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" si="17"/>
-        <v>30418.476461724385</v>
+        <v>3742.4738999212814</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" si="18"/>
-        <v>15209.238230862193</v>
+        <v>1871.2369499606407</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="19"/>
@@ -3294,20 +3176,17 @@
       <c r="M40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
       <c r="O40" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3322,19 +3201,19 @@
       </c>
       <c r="D41" s="14">
         <f t="shared" si="15"/>
-        <v>233183.36490541181</v>
+        <v>5499.217481354035</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" si="16"/>
-        <v>116591.68245270591</v>
+        <v>2749.6087406770175</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="17"/>
-        <v>45627.714692586582</v>
+        <v>4490.9686799055371</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="18"/>
-        <v>22813.857346293291</v>
+        <v>2245.4843399527686</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="19"/>
@@ -3359,20 +3238,17 @@
       <c r="M41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
       <c r="O41" s="1">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3387,19 +3263,19 @@
       </c>
       <c r="D42" s="15">
         <f t="shared" ref="D42:D51" si="24">D41*P42</f>
-        <v>326456.71086757653</v>
+        <v>7038.998376133165</v>
       </c>
       <c r="E42" s="15">
         <f t="shared" ref="E42:E51" si="25">E41*P42</f>
-        <v>163228.35543378827</v>
+        <v>3519.4991880665825</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" ref="F42:F51" si="26">F41*R42</f>
-        <v>68441.57203887988</v>
+        <v>5389.1624158866443</v>
       </c>
       <c r="G42" s="15">
         <f t="shared" ref="G42:G51" si="27">G41*R42</f>
-        <v>34220.78601943994</v>
+        <v>2694.5812079433222</v>
       </c>
       <c r="H42" s="15">
         <f t="shared" ref="H42:H51" si="28">H41*O42</f>
@@ -3424,19 +3300,16 @@
       <c r="M42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
       <c r="O42" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3451,19 +3324,19 @@
       </c>
       <c r="D43" s="15">
         <f t="shared" si="24"/>
-        <v>457039.39521460712</v>
+        <v>9009.9179214504511</v>
       </c>
       <c r="E43" s="15">
         <f t="shared" si="25"/>
-        <v>228519.69760730356</v>
+        <v>4504.9589607252256</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="26"/>
-        <v>102662.35805831982</v>
+        <v>6466.9948990639732</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="27"/>
-        <v>51331.17902915991</v>
+        <v>3233.4974495319866</v>
       </c>
       <c r="H43" s="15">
         <f t="shared" si="28"/>
@@ -3488,20 +3361,17 @@
       <c r="M43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
       <c r="O43" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3516,19 +3386,19 @@
       </c>
       <c r="D44" s="15">
         <f t="shared" si="24"/>
-        <v>639855.15330044995</v>
+        <v>11532.694939456578</v>
       </c>
       <c r="E44" s="15">
         <f t="shared" si="25"/>
-        <v>319927.57665022498</v>
+        <v>5766.3474697282891</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="26"/>
-        <v>153993.53708747972</v>
+        <v>7760.3938788767673</v>
       </c>
       <c r="G44" s="15">
         <f t="shared" si="27"/>
-        <v>76996.768543739861</v>
+        <v>3880.1969394383837</v>
       </c>
       <c r="H44" s="15">
         <f t="shared" si="28"/>
@@ -3553,20 +3423,17 @@
       <c r="M44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
       <c r="O44" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3581,19 +3448,19 @@
       </c>
       <c r="D45" s="15">
         <f t="shared" si="24"/>
-        <v>895797.21462062991</v>
+        <v>14761.849522504421</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="25"/>
-        <v>447898.60731031495</v>
+        <v>7380.9247612522104</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="26"/>
-        <v>230990.30563121958</v>
+        <v>9312.4726546521197</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="27"/>
-        <v>115495.15281560979</v>
+        <v>4656.2363273260598</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="28"/>
@@ -3618,20 +3485,17 @@
       <c r="M45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
       <c r="O45" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3646,19 +3510,19 @@
       </c>
       <c r="D46" s="15">
         <f t="shared" si="24"/>
-        <v>1254116.1004688819</v>
+        <v>18895.167388805658</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="25"/>
-        <v>627058.05023444095</v>
+        <v>9447.5836944028288</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="26"/>
-        <v>346485.45844682935</v>
+        <v>11174.967185582544</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="27"/>
-        <v>173242.72922341467</v>
+        <v>5587.4835927912718</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="28"/>
@@ -3683,20 +3547,17 @@
       <c r="M46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="1">
-        <v>1</v>
-      </c>
       <c r="O46" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3711,19 +3572,19 @@
       </c>
       <c r="D47" s="15">
         <f t="shared" si="24"/>
-        <v>1755762.5406564346</v>
+        <v>24185.814257671242</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="25"/>
-        <v>877881.2703282173</v>
+        <v>12092.907128835621</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="26"/>
-        <v>519728.18767024402</v>
+        <v>13409.960622699053</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="27"/>
-        <v>259864.09383512201</v>
+        <v>6704.9803113495263</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="28"/>
@@ -3748,20 +3609,17 @@
       <c r="M47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
       <c r="O47" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3776,19 +3634,19 @@
       </c>
       <c r="D48" s="15">
         <f t="shared" si="24"/>
-        <v>2458067.5569190085</v>
+        <v>30957.84224981919</v>
       </c>
       <c r="E48" s="15">
         <f t="shared" si="25"/>
-        <v>1229033.7784595042</v>
+        <v>15478.921124909595</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="26"/>
-        <v>779592.28150536609</v>
+        <v>16091.952747238862</v>
       </c>
       <c r="G48" s="15">
         <f t="shared" si="27"/>
-        <v>389796.14075268304</v>
+        <v>8045.9763736194309</v>
       </c>
       <c r="H48" s="15">
         <f t="shared" si="28"/>
@@ -3813,20 +3671,17 @@
       <c r="M48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
       <c r="O48" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3841,19 +3696,19 @@
       </c>
       <c r="D49" s="15">
         <f t="shared" si="24"/>
-        <v>3441294.5796866119</v>
+        <v>39626.038079768565</v>
       </c>
       <c r="E49" s="15">
         <f t="shared" si="25"/>
-        <v>1720647.2898433059</v>
+        <v>19813.019039884282</v>
       </c>
       <c r="F49" s="15">
         <f t="shared" si="26"/>
-        <v>1169388.4222580492</v>
+        <v>19310.343296686635</v>
       </c>
       <c r="G49" s="15">
         <f t="shared" si="27"/>
-        <v>584694.21112902462</v>
+        <v>9655.1716483433174</v>
       </c>
       <c r="H49" s="15">
         <f t="shared" si="28"/>
@@ -3878,20 +3733,17 @@
       <c r="M49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
       <c r="O49" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3906,19 +3758,19 @@
       </c>
       <c r="D50" s="15">
         <f t="shared" si="24"/>
-        <v>4817812.4115612563</v>
+        <v>50721.328742103768</v>
       </c>
       <c r="E50" s="15">
         <f t="shared" si="25"/>
-        <v>2408906.2057806281</v>
+        <v>25360.664371051884</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="26"/>
-        <v>1754082.6333870739</v>
+        <v>23172.41195602396</v>
       </c>
       <c r="G50" s="15">
         <f t="shared" si="27"/>
-        <v>877041.31669353694</v>
+        <v>11586.20597801198</v>
       </c>
       <c r="H50" s="15">
         <f t="shared" si="28"/>
@@ -3943,20 +3795,17 @@
       <c r="M50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
       <c r="O50" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3971,19 +3820,19 @@
       </c>
       <c r="D51" s="15">
         <f t="shared" si="24"/>
-        <v>6744937.376185758</v>
+        <v>64923.300789892826</v>
       </c>
       <c r="E51" s="15">
         <f t="shared" si="25"/>
-        <v>3372468.688092879</v>
+        <v>32461.650394946413</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="26"/>
-        <v>2631123.9500806108</v>
+        <v>27806.89434722875</v>
       </c>
       <c r="G51" s="15">
         <f t="shared" si="27"/>
-        <v>1315561.9750403054</v>
+        <v>13903.447173614375</v>
       </c>
       <c r="H51" s="15">
         <f t="shared" si="28"/>
@@ -4008,20 +3857,17 @@
       <c r="M51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
       <c r="O51" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -4036,19 +3882,19 @@
       </c>
       <c r="D52" s="16">
         <f t="shared" ref="D52:D61" si="33">D51*P52</f>
-        <v>9442912.3266600613</v>
+        <v>83101.825011062814</v>
       </c>
       <c r="E52" s="16">
         <f t="shared" ref="E52:E61" si="34">E51*P52</f>
-        <v>4721456.1633300306</v>
+        <v>41550.912505531407</v>
       </c>
       <c r="F52" s="16">
         <f t="shared" ref="F52:F61" si="35">F51*R52</f>
-        <v>3946685.9251209162</v>
+        <v>33368.273216674497</v>
       </c>
       <c r="G52" s="16">
         <f t="shared" ref="G52:G61" si="36">G51*R52</f>
-        <v>1973342.9625604581</v>
+        <v>16684.136608337249</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" ref="H52:H61" si="37">H51*O52</f>
@@ -4073,20 +3919,17 @@
       <c r="M52" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
       <c r="O52" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -4101,19 +3944,19 @@
       </c>
       <c r="D53" s="16">
         <f t="shared" si="33"/>
-        <v>13220077.257324085</v>
+        <v>106370.33601416041</v>
       </c>
       <c r="E53" s="16">
         <f t="shared" si="34"/>
-        <v>6610038.6286620423</v>
+        <v>53185.168007080203</v>
       </c>
       <c r="F53" s="16">
         <f t="shared" si="35"/>
-        <v>5920028.8876813743</v>
+        <v>40041.927860009397</v>
       </c>
       <c r="G53" s="16">
         <f t="shared" si="36"/>
-        <v>2960014.4438406872</v>
+        <v>20020.963930004698</v>
       </c>
       <c r="H53" s="16">
         <f t="shared" si="37"/>
@@ -4138,20 +3981,17 @@
       <c r="M53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
       <c r="O53" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4166,19 +4006,19 @@
       </c>
       <c r="D54" s="16">
         <f t="shared" si="33"/>
-        <v>18508108.160253718</v>
+        <v>136154.03009812531</v>
       </c>
       <c r="E54" s="16">
         <f t="shared" si="34"/>
-        <v>9254054.0801268592</v>
+        <v>68077.015049062655</v>
       </c>
       <c r="F54" s="16">
         <f t="shared" si="35"/>
-        <v>8880043.3315220624</v>
+        <v>48050.313432011273</v>
       </c>
       <c r="G54" s="16">
         <f t="shared" si="36"/>
-        <v>4440021.6657610312</v>
+        <v>24025.156716005637</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" si="37"/>
@@ -4203,20 +4043,17 @@
       <c r="M54" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N54" s="1">
-        <v>1</v>
-      </c>
       <c r="O54" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4231,19 +4068,19 @@
       </c>
       <c r="D55" s="16">
         <f t="shared" si="33"/>
-        <v>25911351.424355205</v>
+        <v>174277.15852560039</v>
       </c>
       <c r="E55" s="16">
         <f t="shared" si="34"/>
-        <v>12955675.712177603</v>
+        <v>87138.579262800195</v>
       </c>
       <c r="F55" s="16">
         <f t="shared" si="35"/>
-        <v>13320064.997283094</v>
+        <v>57660.376118413529</v>
       </c>
       <c r="G55" s="16">
         <f t="shared" si="36"/>
-        <v>6660032.4986415468</v>
+        <v>28830.188059206765</v>
       </c>
       <c r="H55" s="16">
         <f t="shared" si="37"/>
@@ -4268,20 +4105,17 @@
       <c r="M55" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N55" s="1">
-        <v>1</v>
-      </c>
       <c r="O55" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4296,19 +4130,19 @@
       </c>
       <c r="D56" s="16">
         <f t="shared" si="33"/>
-        <v>36275891.994097285</v>
+        <v>223074.76291276849</v>
       </c>
       <c r="E56" s="16">
         <f t="shared" si="34"/>
-        <v>18137945.997048642</v>
+        <v>111537.38145638425</v>
       </c>
       <c r="F56" s="16">
         <f t="shared" si="35"/>
-        <v>19980097.49592464</v>
+        <v>69192.451342096232</v>
       </c>
       <c r="G56" s="16">
         <f t="shared" si="36"/>
-        <v>9990048.7479623202</v>
+        <v>34596.225671048116</v>
       </c>
       <c r="H56" s="16">
         <f t="shared" si="37"/>
@@ -4333,20 +4167,17 @@
       <c r="M56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N56" s="1">
-        <v>1</v>
-      </c>
       <c r="O56" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4361,19 +4192,19 @@
       </c>
       <c r="D57" s="16">
         <f t="shared" si="33"/>
-        <v>50786248.791736193</v>
+        <v>285535.69652834366</v>
       </c>
       <c r="E57" s="16">
         <f t="shared" si="34"/>
-        <v>25393124.395868097</v>
+        <v>142767.84826417183</v>
       </c>
       <c r="F57" s="16">
         <f t="shared" si="35"/>
-        <v>29970146.243886963</v>
+        <v>83030.941610515481</v>
       </c>
       <c r="G57" s="16">
         <f t="shared" si="36"/>
-        <v>14985073.121943481</v>
+        <v>41515.470805257741</v>
       </c>
       <c r="H57" s="16">
         <f t="shared" si="37"/>
@@ -4398,20 +4229,17 @@
       <c r="M57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
       <c r="O57" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4426,19 +4254,19 @@
       </c>
       <c r="D58" s="16">
         <f t="shared" si="33"/>
-        <v>71100748.308430672</v>
+        <v>365485.6915562799</v>
       </c>
       <c r="E58" s="16">
         <f t="shared" si="34"/>
-        <v>35550374.154215336</v>
+        <v>182742.84577813995</v>
       </c>
       <c r="F58" s="16">
         <f t="shared" si="35"/>
-        <v>44955219.365830444</v>
+        <v>99637.129932618569</v>
       </c>
       <c r="G58" s="16">
         <f t="shared" si="36"/>
-        <v>22477609.682915222</v>
+        <v>49818.564966309285</v>
       </c>
       <c r="H58" s="16">
         <f t="shared" si="37"/>
@@ -4463,20 +4291,17 @@
       <c r="M58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
       <c r="O58" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4491,19 +4316,19 @@
       </c>
       <c r="D59" s="16">
         <f t="shared" si="33"/>
-        <v>99541047.631802931</v>
+        <v>467821.68519203831</v>
       </c>
       <c r="E59" s="16">
         <f t="shared" si="34"/>
-        <v>49770523.815901466</v>
+        <v>233910.84259601915</v>
       </c>
       <c r="F59" s="16">
         <f t="shared" si="35"/>
-        <v>67432829.048745662</v>
+        <v>119564.55591914228</v>
       </c>
       <c r="G59" s="16">
         <f t="shared" si="36"/>
-        <v>33716414.524372831</v>
+        <v>59782.27795957114</v>
       </c>
       <c r="H59" s="16">
         <f t="shared" si="37"/>
@@ -4528,20 +4353,17 @@
       <c r="M59" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N59" s="1">
-        <v>1</v>
-      </c>
       <c r="O59" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4556,19 +4378,19 @@
       </c>
       <c r="D60" s="16">
         <f t="shared" si="33"/>
-        <v>139357466.68452409</v>
+        <v>598811.75704580906</v>
       </c>
       <c r="E60" s="16">
         <f t="shared" si="34"/>
-        <v>69678733.342262045</v>
+        <v>299405.87852290453</v>
       </c>
       <c r="F60" s="16">
         <f t="shared" si="35"/>
-        <v>101149243.57311849</v>
+        <v>143477.46710297072</v>
       </c>
       <c r="G60" s="16">
         <f t="shared" si="36"/>
-        <v>50574621.786559246</v>
+        <v>71738.733551485362</v>
       </c>
       <c r="H60" s="16">
         <f t="shared" si="37"/>
@@ -4593,20 +4415,17 @@
       <c r="M60" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
       <c r="O60" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R60" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4621,19 +4440,19 @@
       </c>
       <c r="D61" s="16">
         <f t="shared" si="33"/>
-        <v>195100453.35833371</v>
+        <v>766479.04901863565</v>
       </c>
       <c r="E61" s="16">
         <f t="shared" si="34"/>
-        <v>97550226.679166853</v>
+        <v>383239.52450931782</v>
       </c>
       <c r="F61" s="16">
         <f t="shared" si="35"/>
-        <v>151723865.35967773</v>
+        <v>172172.96052356486</v>
       </c>
       <c r="G61" s="16">
         <f t="shared" si="36"/>
-        <v>75861932.679838866</v>
+        <v>86086.480261782432</v>
       </c>
       <c r="H61" s="16">
         <f t="shared" si="37"/>
@@ -4658,21 +4477,106 @@
       <c r="M61" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
       <c r="O61" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R61" s="1">
         <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/NpcsAo-Web.xlsx
@@ -63,144 +63,36 @@
     <t>forest</t>
   </si>
   <si>
-    <t>Murcielago</t>
-  </si>
-  <si>
     <t>Goblin</t>
   </si>
   <si>
-    <t>Lobo</t>
-  </si>
-  <si>
-    <t>Esqueleto</t>
-  </si>
-  <si>
     <t>Zombie</t>
   </si>
   <si>
-    <t>Orco</t>
-  </si>
-  <si>
-    <t>Araña Gigante</t>
-  </si>
-  <si>
-    <t>Bandido</t>
-  </si>
-  <si>
     <t>desert</t>
   </si>
   <si>
     <t>caves</t>
   </si>
   <si>
-    <t>Esqueleto de minero</t>
-  </si>
-  <si>
-    <t>Devorador de luz</t>
-  </si>
-  <si>
-    <t>Espectro de la mina</t>
-  </si>
-  <si>
-    <t>Devorador de almas</t>
-  </si>
-  <si>
-    <t>Naga de cueva</t>
-  </si>
-  <si>
-    <t>Aullador de la mina</t>
-  </si>
-  <si>
-    <t>Serpiente de arena</t>
-  </si>
-  <si>
-    <t>Sabueso del desierto</t>
-  </si>
-  <si>
-    <t>Espectro del oasis</t>
-  </si>
-  <si>
     <t>multExp</t>
   </si>
   <si>
     <t>multAll</t>
   </si>
   <si>
-    <t>Serpiente alada</t>
-  </si>
-  <si>
-    <t>Rata gigante</t>
-  </si>
-  <si>
     <t>multGold</t>
   </si>
   <si>
-    <t>Rey Zombie</t>
-  </si>
-  <si>
-    <t>Rey Orco</t>
-  </si>
-  <si>
     <t>Kraken</t>
   </si>
   <si>
-    <t>Dragon marino</t>
-  </si>
-  <si>
-    <t>Leviatan</t>
-  </si>
-  <si>
     <t>Medusa</t>
   </si>
   <si>
-    <t>Sirena</t>
-  </si>
-  <si>
-    <t>Gargola del viento</t>
-  </si>
-  <si>
-    <t>Espiritu de la tempestad</t>
-  </si>
-  <si>
-    <t>Golem de sal</t>
-  </si>
-  <si>
-    <t>Buho de arena</t>
-  </si>
-  <si>
-    <t>Escorpion gigante</t>
-  </si>
-  <si>
-    <t>Golem de piedra</t>
-  </si>
-  <si>
-    <t>Gargola de roca</t>
-  </si>
-  <si>
-    <t>Dragon del sol</t>
-  </si>
-  <si>
-    <t>Cefalopodo mutante</t>
-  </si>
-  <si>
-    <t>Cangrejo gigante</t>
-  </si>
-  <si>
-    <t>Anguila electrica</t>
-  </si>
-  <si>
-    <t>Alimaña marina</t>
-  </si>
-  <si>
-    <t>Behemoth marino</t>
-  </si>
-  <si>
     <t>sea</t>
   </si>
   <si>
-    <t>Oso cavernicola</t>
-  </si>
-  <si>
     <t>mountain</t>
   </si>
   <si>
@@ -234,37 +126,145 @@
     <t>Yeti</t>
   </si>
   <si>
-    <t>Lacayo</t>
-  </si>
-  <si>
-    <t>Bruja</t>
-  </si>
-  <si>
-    <t>Cerbero</t>
-  </si>
-  <si>
-    <t>Vampiro</t>
-  </si>
-  <si>
     <t>Chimera</t>
   </si>
   <si>
-    <t>Gargola de fuego</t>
-  </si>
-  <si>
-    <t>Golem de fuego</t>
-  </si>
-  <si>
-    <t>Fenix</t>
-  </si>
-  <si>
-    <t>Dragon de fuego</t>
-  </si>
-  <si>
     <t>Efreeti</t>
   </si>
   <si>
     <t>hell</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Zombie King</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Giant Spider</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>Orc King</t>
+  </si>
+  <si>
+    <t>Giant Rat</t>
+  </si>
+  <si>
+    <t>Miner Skeleton</t>
+  </si>
+  <si>
+    <t>Rock Gargoyle</t>
+  </si>
+  <si>
+    <t>Cave Bear</t>
+  </si>
+  <si>
+    <t>Stone Golem</t>
+  </si>
+  <si>
+    <t>Mine Howler</t>
+  </si>
+  <si>
+    <t>Mine Specter</t>
+  </si>
+  <si>
+    <t>Soul Devourer</t>
+  </si>
+  <si>
+    <t>Light Devourer</t>
+  </si>
+  <si>
+    <t>Cave Naga</t>
+  </si>
+  <si>
+    <t>Desert Owl</t>
+  </si>
+  <si>
+    <t>Desert Hound</t>
+  </si>
+  <si>
+    <t>Sand Serpent</t>
+  </si>
+  <si>
+    <t>Giant Scorpion</t>
+  </si>
+  <si>
+    <t>Salt Golem</t>
+  </si>
+  <si>
+    <t>Winged Serpent</t>
+  </si>
+  <si>
+    <t>Oasis Specter</t>
+  </si>
+  <si>
+    <t>Wind Gargoyle</t>
+  </si>
+  <si>
+    <t>Storm Spirit</t>
+  </si>
+  <si>
+    <t>Sun Dragon</t>
+  </si>
+  <si>
+    <t>Electric Eel</t>
+  </si>
+  <si>
+    <t>Giant Crab</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>Marine Behemoth</t>
+  </si>
+  <si>
+    <t>Sea Vermin</t>
+  </si>
+  <si>
+    <t>Leviathan</t>
+  </si>
+  <si>
+    <t>Sea Dragon</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Fire Gargoyle</t>
+  </si>
+  <si>
+    <t>Fire Golem</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Fire Dragon</t>
+  </si>
+  <si>
+    <t>Mutant Octopus</t>
   </si>
 </sst>
 </file>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -779,13 +779,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -843,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="13">
         <v>6</v>
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13">
         <v>11</v>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C5" s="13">
         <v>16</v>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="13">
         <v>21</v>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="13">
         <v>26</v>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C8" s="13">
         <v>31</v>
@@ -1214,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C9" s="13">
         <v>36</v>
@@ -1276,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C10" s="13">
         <v>41</v>
@@ -1338,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13">
         <v>46</v>
@@ -1400,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C12" s="20">
         <v>51</v>
@@ -1442,7 +1442,7 @@
         <v>4.7158953820000038</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="8"/>
@@ -1462,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C13" s="20">
         <v>56</v>
@@ -1504,7 +1504,7 @@
         <v>5.1874849202000046</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="8"/>
@@ -1524,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="20">
         <v>61</v>
@@ -1566,7 +1566,7 @@
         <v>5.7062334122200058</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="8"/>
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C15" s="20">
         <v>66</v>
@@ -1628,7 +1628,7 @@
         <v>6.276856753442007</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="8"/>
@@ -1690,7 +1690,7 @@
         <v>6.9045424287862085</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="8"/>
@@ -1710,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C17" s="20">
         <v>76</v>
@@ -1752,7 +1752,7 @@
         <v>7.5949966716648296</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="8"/>
@@ -1772,7 +1772,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C18" s="20">
         <v>81</v>
@@ -1814,7 +1814,7 @@
         <v>8.3544963388313125</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="8"/>
@@ -1834,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C19" s="20">
         <v>86</v>
@@ -1876,7 +1876,7 @@
         <v>9.1899459727144439</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="8"/>
@@ -1896,7 +1896,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C20" s="20">
         <v>91</v>
@@ -1938,7 +1938,7 @@
         <v>10.108940569985888</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="8"/>
@@ -1958,7 +1958,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C21" s="20">
         <v>96</v>
@@ -2000,7 +2000,7 @@
         <v>11.119834626984478</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="8"/>
@@ -2020,7 +2020,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C22" s="21">
         <v>101</v>
@@ -2062,7 +2062,7 @@
         <v>12.231818089682926</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="8"/>
@@ -2082,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C23" s="21">
         <v>106</v>
@@ -2124,7 +2124,7 @@
         <v>13.45499989865122</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="8"/>
@@ -2144,7 +2144,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C24" s="21">
         <v>111</v>
@@ -2186,7 +2186,7 @@
         <v>14.800499888516343</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="8"/>
@@ -2206,7 +2206,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C25" s="21">
         <v>116</v>
@@ -2248,7 +2248,7 @@
         <v>16.280549877367978</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="8"/>
@@ -2268,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C26" s="21">
         <v>121</v>
@@ -2310,7 +2310,7 @@
         <v>17.908604865104778</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="8"/>
@@ -2330,7 +2330,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C27" s="21">
         <v>126</v>
@@ -2372,7 +2372,7 @@
         <v>19.699465351615256</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="8"/>
@@ -2392,7 +2392,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C28" s="21">
         <v>131</v>
@@ -2434,7 +2434,7 @@
         <v>21.669411886776782</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="8"/>
@@ -2454,7 +2454,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C29" s="21">
         <v>136</v>
@@ -2496,7 +2496,7 @@
         <v>23.836353075454461</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="8"/>
@@ -2516,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C30" s="21">
         <v>141</v>
@@ -2558,7 +2558,7 @@
         <v>26.219988382999908</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="8"/>
@@ -2578,7 +2578,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C31" s="21">
         <v>146</v>
@@ -2620,7 +2620,7 @@
         <v>28.841987221299902</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="8"/>
@@ -2640,7 +2640,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C32" s="5">
         <v>151</v>
@@ -2682,7 +2682,7 @@
         <v>37.494583387689872</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O32" s="1">
         <v>1.3</v>
@@ -2699,7 +2699,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5">
         <v>156</v>
@@ -2741,7 +2741,7 @@
         <v>48.742958403996838</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="8"/>
@@ -2760,7 +2760,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5">
         <v>161</v>
@@ -2802,7 +2802,7 @@
         <v>63.365845925195892</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="8"/>
@@ -2822,7 +2822,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C35" s="5">
         <v>166</v>
@@ -2864,7 +2864,7 @@
         <v>82.375599702754656</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="8"/>
@@ -2884,7 +2884,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C36" s="5">
         <v>171</v>
@@ -2926,7 +2926,7 @@
         <v>107.08827961358105</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="8"/>
@@ -2946,7 +2946,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5">
         <v>176</v>
@@ -2988,7 +2988,7 @@
         <v>139.21476349765538</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="8"/>
@@ -3008,7 +3008,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C38" s="5">
         <v>181</v>
@@ -3050,7 +3050,7 @@
         <v>180.97919254695199</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" si="8"/>
@@ -3070,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C39" s="5">
         <v>186</v>
@@ -3112,7 +3112,7 @@
         <v>235.27295031103759</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="8"/>
@@ -3132,7 +3132,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C40" s="5">
         <v>191</v>
@@ -3174,7 +3174,7 @@
         <v>305.85483540434888</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="8"/>
@@ -3194,7 +3194,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C41" s="5">
         <v>196</v>
@@ -3236,7 +3236,7 @@
         <v>397.61128602565356</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="8"/>
@@ -3256,7 +3256,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C42" s="9">
         <v>201</v>
@@ -3298,7 +3298,7 @@
         <v>437.37241462821896</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O42" s="1">
         <v>1.1000000000000001</v>
@@ -3317,7 +3317,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C43" s="9">
         <v>206</v>
@@ -3359,7 +3359,7 @@
         <v>481.1096560910409</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="8"/>
@@ -3379,7 +3379,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C44" s="9">
         <v>211</v>
@@ -3421,7 +3421,7 @@
         <v>529.22062170014499</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="8"/>
@@ -3441,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C45" s="9">
         <v>216</v>
@@ -3483,7 +3483,7 @@
         <v>582.14268387015954</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="8"/>
@@ -3503,7 +3503,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C46" s="9">
         <v>221</v>
@@ -3545,7 +3545,7 @@
         <v>640.35695225717552</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="8"/>
@@ -3565,7 +3565,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C47" s="9">
         <v>226</v>
@@ -3607,7 +3607,7 @@
         <v>704.39264748289315</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" si="8"/>
@@ -3627,7 +3627,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C48" s="9">
         <v>231</v>
@@ -3669,7 +3669,7 @@
         <v>774.83191223118251</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="8"/>
@@ -3689,7 +3689,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C49" s="9">
         <v>236</v>
@@ -3731,7 +3731,7 @@
         <v>852.31510345430081</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" si="8"/>
@@ -3751,7 +3751,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C50" s="9">
         <v>241</v>
@@ -3793,7 +3793,7 @@
         <v>937.54661379973095</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" si="8"/>
@@ -3813,7 +3813,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C51" s="9">
         <v>246</v>
@@ -3855,7 +3855,7 @@
         <v>1031.3012751797041</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" si="8"/>
@@ -3875,7 +3875,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C52" s="10">
         <v>251</v>
@@ -3917,7 +3917,7 @@
         <v>1134.4314026976747</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="8"/>
@@ -3937,7 +3937,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="10">
         <v>256</v>
@@ -3979,7 +3979,7 @@
         <v>1247.8745429674423</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="8"/>
@@ -3999,7 +3999,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C54" s="10">
         <v>261</v>
@@ -4041,7 +4041,7 @@
         <v>1372.6619972641865</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="8"/>
@@ -4061,7 +4061,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="10">
         <v>266</v>
@@ -4103,7 +4103,7 @@
         <v>1509.9281969906053</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="8"/>
@@ -4123,7 +4123,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C56" s="10">
         <v>271</v>
@@ -4165,7 +4165,7 @@
         <v>1660.921016689666</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" si="8"/>
@@ -4185,7 +4185,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="10">
         <v>276</v>
@@ -4227,7 +4227,7 @@
         <v>1827.0131183586327</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" si="8"/>
@@ -4247,7 +4247,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="10">
         <v>281</v>
@@ -4289,7 +4289,7 @@
         <v>2009.7144301944961</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" si="8"/>
@@ -4309,7 +4309,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="10">
         <v>286</v>
@@ -4351,7 +4351,7 @@
         <v>2210.6858732139458</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O59" s="1">
         <f t="shared" si="8"/>
@@ -4371,7 +4371,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" s="10">
         <v>291</v>
@@ -4413,7 +4413,7 @@
         <v>2431.7544605353405</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" si="8"/>
@@ -4433,7 +4433,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C61" s="10">
         <v>296</v>
@@ -4475,7 +4475,7 @@
         <v>2674.9299065888749</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="O61" s="1">
         <f t="shared" si="8"/>
